--- a/bin/2025年各工段设备用电起止明细表.xlsx
+++ b/bin/2025年各工段设备用电起止明细表.xlsx
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -695,7 +695,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -713,33 +713,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -782,21 +782,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -825,7 +825,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -833,7 +833,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
@@ -841,7 +841,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -849,7 +849,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -857,7 +857,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -872,7 +872,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -880,7 +880,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -888,7 +888,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -903,7 +903,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1168,23 +1168,23 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1192,23 +1192,23 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1216,31 +1216,31 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1249,23 +1249,23 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,23 +1273,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,20 +1298,20 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,192 +1563,189 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1837,13 +1834,9 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
         <top style="double">
           <color theme="4"/>
         </top>
-        <bottom/>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1875,7 +1868,9 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1886,13 +1881,9 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1906,13 +1897,9 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1925,13 +1912,9 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
-        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1946,15 +1929,12 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1985,15 +1965,12 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </top>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -2008,18 +1985,14 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
-        <diagonal/>
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultPivotStyle="PivotStylePreset2_Accent1" defaultTableStyle="TableStylePreset3_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2028,7 +2001,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" pivot="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -2050,7 +2023,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
@@ -2293,7 +2266,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -15317,7 +15289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F155"/>
   <sheetViews>
@@ -15327,4127 +15299,3107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="2" max="6" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="69" customFormat="1">
-      <c r="A1" s="69" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
-      </c>
-      <c r="B1" s="69" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="C1" s="69" t="inlineStr">
-        <is>
-          <t>耗电量</t>
-        </is>
-      </c>
-      <c r="D1" s="69" t="inlineStr">
-        <is>
-          <t>最大值</t>
-        </is>
-      </c>
-      <c r="E1" s="69" t="inlineStr">
-        <is>
-          <t>最大值日期</t>
-        </is>
-      </c>
-      <c r="F1" s="69" t="inlineStr">
-        <is>
-          <t>最小值</t>
-        </is>
-      </c>
-      <c r="G1" s="69" t="inlineStr">
-        <is>
-          <t>最小值日期</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" s="69" customFormat="1">
-      <c r="A2" s="69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="69" t="inlineStr">
-        <is>
-          <t>1号立机</t>
-        </is>
-      </c>
-      <c r="C2" s="69">
-        <v>11.100000000093132</v>
-      </c>
-      <c r="D2" s="69">
-        <v>1546881.5</v>
-      </c>
-      <c r="E2" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-      <c r="F2" s="69">
-        <v>1546870.4</v>
-      </c>
-      <c r="G2" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" s="69" customFormat="1">
-      <c r="A3" s="69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" s="69" t="inlineStr">
-        <is>
-          <t>2号立机</t>
-        </is>
-      </c>
-      <c r="C3" s="69">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>1546747</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45747.4167719932</v>
+      </c>
+      <c r="E2">
+        <v>1542953.3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45716.9584371574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>998713</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45747.4167879147</v>
+      </c>
+      <c r="E3">
+        <v>997021.4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45716.9584527361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>516625.9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45747.4168035755</v>
+      </c>
+      <c r="E4">
+        <v>514043.4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45716.9584683726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>822360.2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45747.4168193474</v>
+      </c>
+      <c r="E5">
+        <v>746780</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45716.9584840439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>721276.9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45747.416835227</v>
+      </c>
+      <c r="E6">
+        <v>721276.4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45716.9584996227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>693310.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45747.4168509215</v>
+      </c>
+      <c r="E7">
+        <v>693310.2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45716.9585152361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>877095.1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45747.4168665928</v>
+      </c>
+      <c r="E8">
+        <v>862779.9</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45716.9585309768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>533814.6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45747.4168835719</v>
+      </c>
+      <c r="E9">
+        <v>487671.6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45716.9585466597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>316072.9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45747.416887889</v>
+      </c>
+      <c r="E10">
+        <v>245095.7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45716.9585507569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>9892.9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45747.4169036993</v>
+      </c>
+      <c r="E11">
+        <v>9884.2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45716.9585663009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>419842.2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45747.416919521</v>
+      </c>
+      <c r="E12">
+        <v>419836.3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45716.9585819722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>243152.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45747.4169353312</v>
+      </c>
+      <c r="E13">
+        <v>243152.1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45716.9585975856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>3975.4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45747.4169510373</v>
+      </c>
+      <c r="E14">
+        <v>3975.4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45716.9586131296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>4985</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45747.416966859</v>
+      </c>
+      <c r="E15">
+        <v>4985</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45716.9586288125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>26301.6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45747.4169827503</v>
+      </c>
+      <c r="E16">
+        <v>5537.3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45716.9586443796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>99136.7</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45747.4169997641</v>
+      </c>
+      <c r="E17">
+        <v>74572.8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45716.9586613126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>6842.1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45747.4170041739</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="D3" s="69">
-        <v>998713</v>
-      </c>
-      <c r="E3" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-      <c r="F3" s="69">
-        <v>998713</v>
-      </c>
-      <c r="G3" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" s="69" customFormat="1">
-      <c r="A4" s="69" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" s="69" t="inlineStr">
-        <is>
-          <t>3号立机</t>
-        </is>
-      </c>
-      <c r="C4" s="69">
+      <c r="F18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>5400.2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45747.4170200015</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="D4" s="69">
-        <v>516625.9</v>
-      </c>
-      <c r="E4" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-      <c r="F4" s="69">
-        <v>516625.9</v>
-      </c>
-      <c r="G4" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" s="69" customFormat="1">
-      <c r="A5" s="69" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" s="69" t="inlineStr">
-        <is>
-          <t>4号立机</t>
-        </is>
-      </c>
-      <c r="C5" s="69">
+      <c r="F19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>3441.1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45747.4170356882</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="D5" s="69">
-        <v>822360.2</v>
-      </c>
-      <c r="E5" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-      <c r="F5" s="69">
-        <v>822360.2</v>
-      </c>
-      <c r="G5" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" s="69" customFormat="1">
-      <c r="A6" s="69" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" s="69" t="inlineStr">
-        <is>
-          <t>5号立机</t>
-        </is>
-      </c>
-      <c r="C6" s="69">
+      <c r="F20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>6621</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45747.4170515879</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="D6" s="69">
-        <v>721276.9</v>
-      </c>
-      <c r="E6" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-      <c r="F6" s="69">
-        <v>721276.9</v>
-      </c>
-      <c r="G6" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" s="69" customFormat="1">
-      <c r="A7" s="69" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" s="69" t="inlineStr">
-        <is>
-          <t>6号立机</t>
-        </is>
-      </c>
-      <c r="C7" s="69">
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>39392.4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45747.4170674791</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
-      <c r="D7" s="69">
-        <v>693310.3</v>
-      </c>
-      <c r="E7" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-      <c r="F7" s="69">
-        <v>693310.3</v>
-      </c>
-      <c r="G7" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" s="69" customFormat="1">
-      <c r="A8" s="69" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" s="69" t="inlineStr">
-        <is>
-          <t>7号立机</t>
-        </is>
-      </c>
-      <c r="C8" s="69">
-        <v>51.70000000006985</v>
-      </c>
-      <c r="D8" s="69">
-        <v>877723.3</v>
-      </c>
-      <c r="E8" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-      <c r="F8" s="69">
-        <v>877671.6</v>
-      </c>
-      <c r="G8" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" s="69" customFormat="1">
-      <c r="A9" s="69" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" s="69" t="inlineStr">
-        <is>
-          <t>8号立机</t>
-        </is>
-      </c>
-      <c r="C9" s="69">
-        <v>96.30000000004657</v>
-      </c>
-      <c r="D9" s="69">
-        <v>535034.4</v>
-      </c>
-      <c r="E9" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-      <c r="F9" s="69">
-        <v>534938.1</v>
-      </c>
-      <c r="G9" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" s="69" customFormat="1">
-      <c r="A10" s="69" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B10" s="69" t="inlineStr">
-        <is>
-          <t>9号立机</t>
-        </is>
-      </c>
-      <c r="C10" s="69">
-        <v>397.20000000001164</v>
-      </c>
-      <c r="D10" s="69">
-        <v>320826</v>
-      </c>
-      <c r="E10" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F10" s="69">
-        <v>320428.8</v>
-      </c>
-      <c r="G10" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" s="69" customFormat="1">
-      <c r="A11" s="69" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" s="69" t="inlineStr">
-        <is>
-          <t>10号立机</t>
-        </is>
-      </c>
-      <c r="C11" s="69">
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>18486.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45747.4170832315</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
-      <c r="D11" s="69">
-        <v>9892.9</v>
-      </c>
-      <c r="E11" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F11" s="69">
-        <v>9892.9</v>
-      </c>
-      <c r="G11" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" s="69" customFormat="1">
-      <c r="A12" s="69" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" s="69" t="inlineStr">
-        <is>
-          <t>11号立机</t>
-        </is>
-      </c>
-      <c r="C12" s="69">
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>19965</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45747.4171000603</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
-      <c r="D12" s="69">
-        <v>419842.2</v>
-      </c>
-      <c r="E12" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F12" s="69">
-        <v>419842.2</v>
-      </c>
-      <c r="G12" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" s="69" customFormat="1">
-      <c r="A13" s="69" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" s="69" t="inlineStr">
-        <is>
-          <t>12号立机</t>
-        </is>
-      </c>
-      <c r="C13" s="69">
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>18809.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45747.4171172824</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
-      <c r="D13" s="69">
-        <v>243152.1</v>
-      </c>
-      <c r="E13" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F13" s="69">
-        <v>243152.1</v>
-      </c>
-      <c r="G13" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" s="69" customFormat="1">
-      <c r="A14" s="69" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B14" s="69" t="inlineStr">
-        <is>
-          <t>13号立机</t>
-        </is>
-      </c>
-      <c r="C14" s="69">
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>382.9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45747.417119632</v>
+      </c>
+      <c r="E26">
+        <v>287.3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45716.9591634102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>20070</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45747.4171219699</v>
+      </c>
+      <c r="E27">
+        <v>17809.3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45716.9591645676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>96613</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45747.4171233125</v>
+      </c>
+      <c r="E28">
+        <v>90360.5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45716.9591656787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>22352</v>
+      </c>
+      <c r="D29" s="3">
+        <v>45737.9591575333</v>
+      </c>
+      <c r="E29">
+        <v>17841.4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45716.9591668014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>97124</v>
+      </c>
+      <c r="D30" s="3">
+        <v>45747.4171312292</v>
+      </c>
+      <c r="E30">
+        <v>87783.2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45716.959167843</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31">
+        <v>113894</v>
+      </c>
+      <c r="D31" s="3">
+        <v>45747.4171355115</v>
+      </c>
+      <c r="E31">
+        <v>93223.2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45716.9591730631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32">
+        <v>2261.2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>45747.4171398171</v>
+      </c>
+      <c r="E32">
+        <v>2261.2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45716.959177137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>65721</v>
+      </c>
+      <c r="D33" s="3">
+        <v>45747.4171439953</v>
+      </c>
+      <c r="E33">
+        <v>45499.2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45716.9591810375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>417597.3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45747.4171481968</v>
+      </c>
+      <c r="E34">
+        <v>395971</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45716.9591863153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>82123.8</v>
+      </c>
+      <c r="D35" s="3">
+        <v>45747.4171525281</v>
+      </c>
+      <c r="E35">
+        <v>77667.6</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45716.9591904356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>719446.2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>45747.4171681967</v>
+      </c>
+      <c r="E36">
+        <v>627981</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45716.9592058986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>358554</v>
+      </c>
+      <c r="D37" s="3">
+        <v>45747.4171839876</v>
+      </c>
+      <c r="E37">
+        <v>276078.4</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45716.9592216857</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>266295.8</v>
+      </c>
+      <c r="D38" s="3">
+        <v>45747.4171997347</v>
+      </c>
+      <c r="E38">
+        <v>188164.5</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45716.9592372759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>317412.9</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45747.4172154103</v>
+      </c>
+      <c r="E39">
+        <v>312316.7</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45716.9592529819</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>49982.4</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45747.41723107</v>
+      </c>
+      <c r="E40">
+        <v>30113.9</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45716.9592687111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>88099.6</v>
+      </c>
+      <c r="D41" s="3">
+        <v>45747.4172468465</v>
+      </c>
+      <c r="E41">
+        <v>88092.7</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45716.9592844634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>27038.7</v>
+      </c>
+      <c r="D42" s="3">
+        <v>45747.4172625184</v>
+      </c>
+      <c r="E42">
+        <v>27037.2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45716.9593004125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>110729.2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>45747.4172796158</v>
+      </c>
+      <c r="E43">
+        <v>80029.9</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45716.9593160259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>28453.1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>45747.4172837697</v>
+      </c>
+      <c r="E44">
+        <v>6349.4</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45716.9593214079</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <v>2190.3</v>
+      </c>
+      <c r="D45" s="3">
+        <v>45747.4172995567</v>
+      </c>
+      <c r="E45">
+        <v>2190.2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45716.9593371589</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>5764.9</v>
+      </c>
+      <c r="D46" s="3">
+        <v>45747.417315309</v>
+      </c>
+      <c r="E46">
+        <v>5764.9</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45716.9593528319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47">
+        <v>14445.9</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45747.4173320336</v>
+      </c>
+      <c r="E47">
+        <v>14445.7</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45716.9593683758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48">
+        <v>3230</v>
+      </c>
+      <c r="D48" s="3">
+        <v>45747.4173479942</v>
+      </c>
+      <c r="E48">
+        <v>3228.8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45716.9593838487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49">
+        <v>40803.4</v>
+      </c>
+      <c r="D49" s="3">
+        <v>45747.4173648923</v>
+      </c>
+      <c r="E49">
+        <v>40738</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45716.9593994275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50">
+        <v>108158.8</v>
+      </c>
+      <c r="D50" s="3">
+        <v>45747.4173818136</v>
+      </c>
+      <c r="E50">
+        <v>106603.7</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45716.9594151567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51">
+        <v>88368.9</v>
+      </c>
+      <c r="D51" s="3">
+        <v>45747.4173974502</v>
+      </c>
+      <c r="E51">
+        <v>74595.4</v>
+      </c>
+      <c r="F51" s="3">
+        <v>45716.9594306775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52">
+        <v>560712.3</v>
+      </c>
+      <c r="D52" s="3">
+        <v>45747.4174132836</v>
+      </c>
+      <c r="E52">
+        <v>525165.1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45716.9594463488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53">
+        <v>1201225.4</v>
+      </c>
+      <c r="D53" s="3">
+        <v>45747.4174289317</v>
+      </c>
+      <c r="E53">
+        <v>1034629.3</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45716.9594620317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54">
+        <v>269835.3</v>
+      </c>
+      <c r="D54" s="3">
+        <v>45747.4174447303</v>
+      </c>
+      <c r="E54">
+        <v>263588.7</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45716.9594777493</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55">
+        <v>612315.5</v>
+      </c>
+      <c r="D55" s="3">
+        <v>45747.4174604132</v>
+      </c>
+      <c r="E55">
+        <v>579762.1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45716.9594933164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56">
+        <v>82393.7</v>
+      </c>
+      <c r="D56" s="3">
+        <v>45747.4174616285</v>
+      </c>
+      <c r="E56">
+        <v>78467.7</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45716.9594944275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57">
+        <v>70523.3</v>
+      </c>
+      <c r="D57" s="3">
+        <v>45747.4174628785</v>
+      </c>
+      <c r="E57">
+        <v>65021.2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45716.9594955271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58">
+        <v>62062.6</v>
+      </c>
+      <c r="D58" s="3">
+        <v>45747.4174640937</v>
+      </c>
+      <c r="E58">
+        <v>55805.8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45716.9594965455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59">
+        <v>53926.8</v>
+      </c>
+      <c r="D59" s="3">
+        <v>45747.4174652743</v>
+      </c>
+      <c r="E59">
+        <v>46797.4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45716.9594975756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60">
+        <v>771605.8</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45747.4174694757</v>
+      </c>
+      <c r="E60">
+        <v>698794.2</v>
+      </c>
+      <c r="F60" s="3">
+        <v>45716.9595016266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61">
+        <v>1857381.6</v>
+      </c>
+      <c r="D61" s="3">
+        <v>45747.4174852627</v>
+      </c>
+      <c r="E61">
+        <v>1752159</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45716.9595171358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62">
+        <v>80325.5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>45747.417489418</v>
+      </c>
+      <c r="E62">
+        <v>69983.3</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45716.9595211404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63">
+        <v>463183.9</v>
+      </c>
+      <c r="D63" s="3">
+        <v>45747.4174907835</v>
+      </c>
+      <c r="E63">
+        <v>446597.2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>45716.9595234205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64">
+        <v>277413.5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>45747.4174960382</v>
+      </c>
+      <c r="E64">
+        <v>256821.4</v>
+      </c>
+      <c r="F64" s="3">
+        <v>45716.9595273905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
+        <v>474780.4</v>
+      </c>
+      <c r="D65" s="3">
+        <v>45747.4175118601</v>
+      </c>
+      <c r="E65">
+        <v>447341.7</v>
+      </c>
+      <c r="F65" s="3">
+        <v>45716.9595441844</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>254258.7</v>
+      </c>
+      <c r="D66" s="3">
+        <v>45747.4175161539</v>
+      </c>
+      <c r="E66">
+        <v>251008</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45716.9595495664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>120156787.7</v>
+      </c>
+      <c r="D67" s="3">
+        <v>45747.4175186886</v>
+      </c>
+      <c r="E67">
         <v>0</v>
       </c>
-      <c r="D14" s="69">
-        <v>3975.4</v>
-      </c>
-      <c r="E14" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F14" s="69">
-        <v>3975.4</v>
-      </c>
-      <c r="G14" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" s="69" customFormat="1">
-      <c r="A15" s="69" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B15" s="69" t="inlineStr">
-        <is>
-          <t>14号立机</t>
-        </is>
-      </c>
-      <c r="C15" s="69">
+      <c r="F67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68">
+        <v>119596631</v>
+      </c>
+      <c r="D68" s="3">
+        <v>45747.417533898</v>
+      </c>
+      <c r="E68">
         <v>0</v>
       </c>
-      <c r="D15" s="69">
-        <v>4985</v>
-      </c>
-      <c r="E15" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F15" s="69">
-        <v>4985</v>
-      </c>
-      <c r="G15" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" s="69" customFormat="1">
-      <c r="A16" s="69" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B16" s="69" t="inlineStr">
-        <is>
-          <t>15号立机</t>
-        </is>
-      </c>
-      <c r="C16" s="69">
+      <c r="F68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <v>119451699.2</v>
+      </c>
+      <c r="D69" s="3">
+        <v>45747.4175509554</v>
+      </c>
+      <c r="E69">
         <v>0</v>
       </c>
-      <c r="D16" s="69">
-        <v>26301.6</v>
-      </c>
-      <c r="E16" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F16" s="69">
-        <v>26301.6</v>
-      </c>
-      <c r="G16" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" s="69" customFormat="1">
-      <c r="A17" s="69" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B17" s="69" t="inlineStr">
-        <is>
-          <t>16号立机</t>
-        </is>
-      </c>
-      <c r="C17" s="69">
-        <v>169.89999999999418</v>
-      </c>
-      <c r="D17" s="69">
-        <v>100920.5</v>
-      </c>
-      <c r="E17" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F17" s="69">
-        <v>100750.6</v>
-      </c>
-      <c r="G17" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" s="69" customFormat="1">
-      <c r="A18" s="69" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B18" s="69" t="inlineStr">
-        <is>
-          <t>17号立机</t>
-        </is>
-      </c>
-      <c r="C18" s="69">
+      <c r="F69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" t="s">
+        <v>213</v>
+      </c>
+      <c r="F70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72">
+        <v>151105.7</v>
+      </c>
+      <c r="D72" s="3">
+        <v>45747.4176807992</v>
+      </c>
+      <c r="E72">
+        <v>144227.1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>45716.9595507238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73">
+        <v>10552.2</v>
+      </c>
+      <c r="D73" s="3">
+        <v>45747.4176848269</v>
+      </c>
+      <c r="E73">
+        <v>10527.6</v>
+      </c>
+      <c r="F73" s="3">
+        <v>45716.9595560132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74">
+        <v>565663.8</v>
+      </c>
+      <c r="D74" s="3">
+        <v>45747.4177007644</v>
+      </c>
+      <c r="E74">
+        <v>540780.4</v>
+      </c>
+      <c r="F74" s="3">
+        <v>45716.9595716327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75">
+        <v>775764.6</v>
+      </c>
+      <c r="D75" s="3">
+        <v>45747.4177060456</v>
+      </c>
+      <c r="E75">
+        <v>748932.7</v>
+      </c>
+      <c r="F75" s="3">
+        <v>45716.9595756273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>536132.9</v>
+      </c>
+      <c r="D76" s="3">
+        <v>45747.4177218285</v>
+      </c>
+      <c r="E76">
+        <v>493754.2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>45716.9595912001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77">
+        <v>475900.3</v>
+      </c>
+      <c r="D77" s="3">
+        <v>45747.4177375127</v>
+      </c>
+      <c r="E77">
+        <v>442660.3</v>
+      </c>
+      <c r="F77" s="3">
+        <v>45716.9596067376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78">
+        <v>527008.4</v>
+      </c>
+      <c r="D78" s="3">
+        <v>45747.4177399478</v>
+      </c>
+      <c r="E78">
+        <v>512908.6</v>
+      </c>
+      <c r="F78" s="3">
+        <v>45716.9596090425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>159689.2</v>
+      </c>
+      <c r="D79" s="3">
+        <v>45747.4177413283</v>
+      </c>
+      <c r="E79">
+        <v>154849.2</v>
+      </c>
+      <c r="F79" s="3">
+        <v>45716.9596102019</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>212549.8</v>
+      </c>
+      <c r="D80" s="3">
+        <v>45747.4177437456</v>
+      </c>
+      <c r="E80">
+        <v>205111.6</v>
+      </c>
+      <c r="F80" s="3">
+        <v>45716.9596112741</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>66611.5</v>
+      </c>
+      <c r="D81" s="3">
+        <v>45747.4177450883</v>
+      </c>
+      <c r="E81">
+        <v>64662.5</v>
+      </c>
+      <c r="F81" s="3">
+        <v>45716.9596123814</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>350113.3</v>
+      </c>
+      <c r="D82" s="3">
+        <v>45747.4177492781</v>
+      </c>
+      <c r="E82">
+        <v>332475.3</v>
+      </c>
+      <c r="F82" s="3">
+        <v>45716.9596164755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83">
+        <v>418873.4</v>
+      </c>
+      <c r="D83" s="3">
+        <v>45747.4177649725</v>
+      </c>
+      <c r="E83">
+        <v>387404.3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>45716.9596320426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84">
+        <v>324282.1</v>
+      </c>
+      <c r="D84" s="3">
+        <v>45747.4177807827</v>
+      </c>
+      <c r="E84">
+        <v>304575.8</v>
+      </c>
+      <c r="F84" s="3">
+        <v>45716.9596477024</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" t="s">
+        <v>213</v>
+      </c>
+      <c r="E86" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" t="s">
+        <v>213</v>
+      </c>
+      <c r="E87" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" t="s">
+        <v>213</v>
+      </c>
+      <c r="E88" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" t="s">
+        <v>213</v>
+      </c>
+      <c r="F89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" t="s">
+        <v>213</v>
+      </c>
+      <c r="E91" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93">
+        <v>728479.4</v>
+      </c>
+      <c r="D93" s="3">
+        <v>45747.4177965761</v>
+      </c>
+      <c r="E93">
+        <v>713866.7</v>
+      </c>
+      <c r="F93" s="3">
+        <v>45716.9596634316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94">
+        <v>244929.7</v>
+      </c>
+      <c r="D94" s="3">
+        <v>45747.41781234</v>
+      </c>
+      <c r="E94">
+        <v>230886.7</v>
+      </c>
+      <c r="F94" s="3">
+        <v>45716.9596789176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95">
+        <v>236258.4</v>
+      </c>
+      <c r="D95" s="3">
+        <v>45747.4178280808</v>
+      </c>
+      <c r="E95">
+        <v>231355.1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>45716.9596944153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96">
+        <v>183052.4</v>
+      </c>
+      <c r="D96" s="3">
+        <v>45747.4178438678</v>
+      </c>
+      <c r="E96">
+        <v>179636.5</v>
+      </c>
+      <c r="F96" s="3">
+        <v>45716.9597101448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97">
+        <v>249920.8</v>
+      </c>
+      <c r="D97" s="3">
+        <v>45747.4178479187</v>
+      </c>
+      <c r="E97">
+        <v>238615.1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>45716.9597140913</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98">
+        <v>340943.7</v>
+      </c>
+      <c r="D98" s="3">
+        <v>45747.4178532197</v>
+      </c>
+      <c r="E98">
+        <v>320334.5</v>
+      </c>
+      <c r="F98" s="3">
+        <v>45716.9597182347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99">
+        <v>11256.4</v>
+      </c>
+      <c r="D99" s="3">
+        <v>45747.4178576293</v>
+      </c>
+      <c r="E99">
+        <v>11256.4</v>
+      </c>
+      <c r="F99" s="3">
+        <v>45716.959722332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100">
+        <v>62729.3</v>
+      </c>
+      <c r="D100" s="3">
+        <v>45747.417873237</v>
+      </c>
+      <c r="E100">
+        <v>58198.1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>45716.9597380264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101">
+        <v>8262.2</v>
+      </c>
+      <c r="D101" s="3">
+        <v>45747.4178889694</v>
+      </c>
+      <c r="E101">
+        <v>8262.2</v>
+      </c>
+      <c r="F101" s="3">
+        <v>45716.9597536156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102">
+        <v>62438.8</v>
+      </c>
+      <c r="D102" s="3">
+        <v>45747.4179047214</v>
+      </c>
+      <c r="E102">
+        <v>57560.5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>45716.9597693499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103">
+        <v>2712.7</v>
+      </c>
+      <c r="D103" s="3">
+        <v>45747.4179216452</v>
+      </c>
+      <c r="E103">
+        <v>2712.7</v>
+      </c>
+      <c r="F103" s="3">
+        <v>45716.95978489</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104">
+        <v>7083.8</v>
+      </c>
+      <c r="D104" s="3">
+        <v>45747.4179373281</v>
+      </c>
+      <c r="E104">
+        <v>7078.6</v>
+      </c>
+      <c r="F104" s="3">
+        <v>45716.9598003877</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105">
+        <v>58155.5</v>
+      </c>
+      <c r="D105" s="3">
+        <v>45747.4179542842</v>
+      </c>
+      <c r="E105">
+        <v>56172.7</v>
+      </c>
+      <c r="F105" s="3">
+        <v>45716.9598159548</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106">
+        <v>2038.2</v>
+      </c>
+      <c r="D106" s="3">
+        <v>45747.417970129</v>
+      </c>
+      <c r="E106">
+        <v>2038.2</v>
+      </c>
+      <c r="F106" s="3">
+        <v>45716.959831684</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107">
+        <v>68459.3</v>
+      </c>
+      <c r="D107" s="3">
+        <v>45747.417985974</v>
+      </c>
+      <c r="E107">
+        <v>65520.6</v>
+      </c>
+      <c r="F107" s="3">
+        <v>45716.9598472743</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108">
+        <v>74631.8</v>
+      </c>
+      <c r="D108" s="3">
+        <v>45747.4180017264</v>
+      </c>
+      <c r="E108">
+        <v>71881.5</v>
+      </c>
+      <c r="F108" s="3">
+        <v>45716.9598627488</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109">
+        <v>16036.9</v>
+      </c>
+      <c r="D109" s="3">
+        <v>45747.4180175712</v>
+      </c>
+      <c r="E109">
+        <v>16036.9</v>
+      </c>
+      <c r="F109" s="3">
+        <v>45716.959878455</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110" t="s">
+        <v>213</v>
+      </c>
+      <c r="E110" t="s">
+        <v>213</v>
+      </c>
+      <c r="F110" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111">
+        <v>62060.3</v>
+      </c>
+      <c r="D111" s="3">
+        <v>45747.4180198512</v>
+      </c>
+      <c r="E111">
+        <v>60647.2</v>
+      </c>
+      <c r="F111" s="3">
+        <v>45716.9598796356</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112">
+        <v>67551.9</v>
+      </c>
+      <c r="D112" s="3">
+        <v>45747.4180212054</v>
+      </c>
+      <c r="E112">
+        <v>64867.8</v>
+      </c>
+      <c r="F112" s="3">
+        <v>45716.9598807696</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" t="s">
+        <v>213</v>
+      </c>
+      <c r="D113" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" t="s">
+        <v>213</v>
+      </c>
+      <c r="F113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>147</v>
+      </c>
+      <c r="C114">
+        <v>2825.4</v>
+      </c>
+      <c r="D114" s="3">
+        <v>45747.4180300827</v>
+      </c>
+      <c r="E114">
+        <v>2708.2</v>
+      </c>
+      <c r="F114" s="3">
+        <v>45716.9598866492</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115">
+        <v>659.3</v>
+      </c>
+      <c r="D115" s="3">
+        <v>45747.4180457888</v>
+      </c>
+      <c r="E115">
+        <v>659.3</v>
+      </c>
+      <c r="F115" s="3">
+        <v>45716.9599023205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116">
+        <v>2889.8</v>
+      </c>
+      <c r="D116" s="3">
+        <v>45747.4180613906</v>
+      </c>
+      <c r="E116">
+        <v>2889.8</v>
+      </c>
+      <c r="F116" s="3">
+        <v>45716.9599178529</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117">
+        <v>300.7</v>
+      </c>
+      <c r="D117" s="3">
+        <v>45747.4180771776</v>
+      </c>
+      <c r="E117">
+        <v>300.7</v>
+      </c>
+      <c r="F117" s="3">
+        <v>45716.9599333275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118">
+        <v>385.1</v>
+      </c>
+      <c r="D118" s="3">
+        <v>45747.3764159609</v>
+      </c>
+      <c r="E118">
+        <v>385.1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>45716.9599489757</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119">
+        <v>12453</v>
+      </c>
+      <c r="D119" s="3">
+        <v>45747.3764315628</v>
+      </c>
+      <c r="E119">
+        <v>11331.7</v>
+      </c>
+      <c r="F119" s="3">
+        <v>45716.9599646585</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120">
+        <v>37709.2</v>
+      </c>
+      <c r="D120" s="3">
+        <v>45747.376447153</v>
+      </c>
+      <c r="E120">
+        <v>37709.2</v>
+      </c>
+      <c r="F120" s="3">
+        <v>45716.9599801794</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121">
+        <v>32106.4</v>
+      </c>
+      <c r="D121" s="3">
+        <v>45747.3764629284</v>
+      </c>
+      <c r="E121">
+        <v>32106.4</v>
+      </c>
+      <c r="F121" s="3">
+        <v>45716.9599958394</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122" t="s">
+        <v>213</v>
+      </c>
+      <c r="E122" t="s">
+        <v>213</v>
+      </c>
+      <c r="F122" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123">
+        <v>39308.7</v>
+      </c>
+      <c r="D123" s="3">
+        <v>45747.3764642017</v>
+      </c>
+      <c r="E123">
+        <v>38972.6</v>
+      </c>
+      <c r="F123" s="3">
+        <v>45716.959997147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124">
+        <v>89169.5</v>
+      </c>
+      <c r="D124" s="3">
+        <v>45747.3764696299</v>
+      </c>
+      <c r="E124">
+        <v>86208.6</v>
+      </c>
+      <c r="F124" s="3">
+        <v>45716.9600010821</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125">
+        <v>15212.1</v>
+      </c>
+      <c r="D125" s="3">
+        <v>45747.3764854053</v>
+      </c>
+      <c r="E125">
+        <v>14519.8</v>
+      </c>
+      <c r="F125" s="3">
+        <v>45716.9600166029</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126">
+        <v>157569.9</v>
+      </c>
+      <c r="D126" s="3">
+        <v>45747.3765010188</v>
+      </c>
+      <c r="E126">
+        <v>150387.7</v>
+      </c>
+      <c r="F126" s="3">
+        <v>45716.9600322511</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>164</v>
+      </c>
+      <c r="C127">
+        <v>138253</v>
+      </c>
+      <c r="D127" s="3">
+        <v>45747.3765168636</v>
+      </c>
+      <c r="E127">
+        <v>134703.9</v>
+      </c>
+      <c r="F127" s="3">
+        <v>45716.9600477951</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" t="s">
+        <v>213</v>
+      </c>
+      <c r="D128" t="s">
+        <v>213</v>
+      </c>
+      <c r="E128" t="s">
+        <v>213</v>
+      </c>
+      <c r="F128" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>167</v>
+      </c>
+      <c r="C129" t="s">
+        <v>213</v>
+      </c>
+      <c r="D129" t="s">
+        <v>213</v>
+      </c>
+      <c r="E129" t="s">
+        <v>213</v>
+      </c>
+      <c r="F129" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>179</v>
+      </c>
+      <c r="C130" t="s">
+        <v>213</v>
+      </c>
+      <c r="D130" t="s">
+        <v>213</v>
+      </c>
+      <c r="E130" t="s">
+        <v>213</v>
+      </c>
+      <c r="F130" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" t="s">
+        <v>213</v>
+      </c>
+      <c r="D131" t="s">
+        <v>213</v>
+      </c>
+      <c r="E131" t="s">
+        <v>213</v>
+      </c>
+      <c r="F131" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>181</v>
+      </c>
+      <c r="C132" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132" t="s">
+        <v>213</v>
+      </c>
+      <c r="E132" t="s">
+        <v>213</v>
+      </c>
+      <c r="F132" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133" t="s">
+        <v>213</v>
+      </c>
+      <c r="D133" t="s">
+        <v>213</v>
+      </c>
+      <c r="E133" t="s">
+        <v>213</v>
+      </c>
+      <c r="F133" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134">
+        <v>414435.7</v>
+      </c>
+      <c r="D134" s="3">
+        <v>45747.3765265627</v>
+      </c>
+      <c r="E134">
+        <v>386040.9</v>
+      </c>
+      <c r="F134" s="3">
+        <v>45716.9600789757</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>213</v>
+      </c>
+      <c r="B135" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" t="s">
+        <v>213</v>
+      </c>
+      <c r="E135" t="s">
+        <v>213</v>
+      </c>
+      <c r="F135" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" t="s">
+        <v>213</v>
+      </c>
+      <c r="D136" t="s">
+        <v>213</v>
+      </c>
+      <c r="E136" t="s">
+        <v>213</v>
+      </c>
+      <c r="F136" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137" t="s">
+        <v>213</v>
+      </c>
+      <c r="D137" t="s">
+        <v>213</v>
+      </c>
+      <c r="E137" t="s">
+        <v>213</v>
+      </c>
+      <c r="F137" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" t="s">
+        <v>213</v>
+      </c>
+      <c r="D138" t="s">
+        <v>213</v>
+      </c>
+      <c r="E138" t="s">
+        <v>213</v>
+      </c>
+      <c r="F138" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>185</v>
+      </c>
+      <c r="C139" t="s">
+        <v>213</v>
+      </c>
+      <c r="D139" t="s">
+        <v>213</v>
+      </c>
+      <c r="E139" t="s">
+        <v>213</v>
+      </c>
+      <c r="F139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" t="s">
+        <v>213</v>
+      </c>
+      <c r="E140" t="s">
+        <v>213</v>
+      </c>
+      <c r="F140" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141" t="s">
+        <v>213</v>
+      </c>
+      <c r="D141" t="s">
+        <v>213</v>
+      </c>
+      <c r="E141" t="s">
+        <v>213</v>
+      </c>
+      <c r="F141" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>188</v>
+      </c>
+      <c r="C142" t="s">
+        <v>213</v>
+      </c>
+      <c r="D142" t="s">
+        <v>213</v>
+      </c>
+      <c r="E142" t="s">
+        <v>213</v>
+      </c>
+      <c r="F142" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>189</v>
+      </c>
+      <c r="C143" t="s">
+        <v>213</v>
+      </c>
+      <c r="D143" t="s">
+        <v>213</v>
+      </c>
+      <c r="E143" t="s">
+        <v>213</v>
+      </c>
+      <c r="F143" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" t="s">
+        <v>213</v>
+      </c>
+      <c r="D144" t="s">
+        <v>213</v>
+      </c>
+      <c r="E144" t="s">
+        <v>213</v>
+      </c>
+      <c r="F144" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145" t="s">
+        <v>213</v>
+      </c>
+      <c r="D145" t="s">
+        <v>213</v>
+      </c>
+      <c r="E145" t="s">
+        <v>213</v>
+      </c>
+      <c r="F145" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>192</v>
+      </c>
+      <c r="C146">
+        <v>315941.3</v>
+      </c>
+      <c r="D146" s="3">
+        <v>45747.3765307643</v>
+      </c>
+      <c r="E146">
         <v>0</v>
       </c>
-      <c r="D18" s="69">
-        <v>6842.1</v>
-      </c>
-      <c r="E18" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:11</t>
-        </is>
-      </c>
-      <c r="F18" s="69">
-        <v>6842.1</v>
-      </c>
-      <c r="G18" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" s="69" customFormat="1">
-      <c r="A19" s="69" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B19" s="69" t="inlineStr">
-        <is>
-          <t>18号立机</t>
-        </is>
-      </c>
-      <c r="C19" s="69">
-        <v>0</v>
-      </c>
-      <c r="D19" s="69">
-        <v>5400.2</v>
-      </c>
-      <c r="E19" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F19" s="69">
-        <v>5400.2</v>
-      </c>
-      <c r="G19" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" s="69" customFormat="1">
-      <c r="A20" s="69" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B20" s="69" t="inlineStr">
-        <is>
-          <t>19号立机</t>
-        </is>
-      </c>
-      <c r="C20" s="69">
-        <v>0</v>
-      </c>
-      <c r="D20" s="69">
-        <v>3441.1</v>
-      </c>
-      <c r="E20" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F20" s="69">
-        <v>3441.1</v>
-      </c>
-      <c r="G20" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" s="69" customFormat="1">
-      <c r="A21" s="69" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B21" s="69" t="inlineStr">
-        <is>
-          <t>20号立机</t>
-        </is>
-      </c>
-      <c r="C21" s="69">
-        <v>0</v>
-      </c>
-      <c r="D21" s="69">
-        <v>6621</v>
-      </c>
-      <c r="E21" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F21" s="69">
-        <v>6621</v>
-      </c>
-      <c r="G21" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" s="69" customFormat="1">
-      <c r="A22" s="69" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B22" s="69" t="inlineStr">
-        <is>
-          <t>21号立机</t>
-        </is>
-      </c>
-      <c r="C22" s="69">
-        <v>0</v>
-      </c>
-      <c r="D22" s="69">
-        <v>39392.4</v>
-      </c>
-      <c r="E22" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F22" s="69">
-        <v>39392.4</v>
-      </c>
-      <c r="G22" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" s="69" customFormat="1">
-      <c r="A23" s="69" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B23" s="69" t="inlineStr">
-        <is>
-          <t>22号立机</t>
-        </is>
-      </c>
-      <c r="C23" s="69">
-        <v>0</v>
-      </c>
-      <c r="D23" s="69">
-        <v>18486.4</v>
-      </c>
-      <c r="E23" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F23" s="69">
-        <v>18486.4</v>
-      </c>
-      <c r="G23" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" s="69" customFormat="1">
-      <c r="A24" s="69" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B24" s="69" t="inlineStr">
-        <is>
-          <t>23号立机</t>
-        </is>
-      </c>
-      <c r="C24" s="69">
-        <v>0</v>
-      </c>
-      <c r="D24" s="69">
-        <v>19965</v>
-      </c>
-      <c r="E24" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F24" s="69">
-        <v>19965</v>
-      </c>
-      <c r="G24" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" s="69" customFormat="1">
-      <c r="A25" s="69" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B25" s="69" t="inlineStr">
-        <is>
-          <t>24号立机</t>
-        </is>
-      </c>
-      <c r="C25" s="69">
-        <v>0</v>
-      </c>
-      <c r="D25" s="69">
-        <v>18809.2</v>
-      </c>
-      <c r="E25" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F25" s="69">
-        <v>18809.2</v>
-      </c>
-      <c r="G25" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" s="69" customFormat="1">
-      <c r="A26" s="69" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B26" s="69" t="inlineStr">
-        <is>
-          <t>1号冷却塔</t>
-        </is>
-      </c>
-      <c r="C26" s="69">
-        <v>0.10000000000002274</v>
-      </c>
-      <c r="D26" s="69">
-        <v>384.1</v>
-      </c>
-      <c r="E26" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F26" s="69">
-        <v>384</v>
-      </c>
-      <c r="G26" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" s="69" customFormat="1">
-      <c r="A27" s="69" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B27" s="69" t="inlineStr">
-        <is>
-          <t>2号冷却站</t>
-        </is>
-      </c>
-      <c r="C27" s="69">
-        <v>6.219999999997526</v>
-      </c>
-      <c r="D27" s="69">
-        <v>20146.96</v>
-      </c>
-      <c r="E27" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F27" s="69">
-        <v>20140.74</v>
-      </c>
-      <c r="G27" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" s="69" customFormat="1">
-      <c r="A28" s="69" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B28" s="69" t="inlineStr">
-        <is>
-          <t>3号冷却塔</t>
-        </is>
-      </c>
-      <c r="C28" s="69">
-        <v>18.580000000001746</v>
-      </c>
-      <c r="D28" s="69">
-        <v>96839.7</v>
-      </c>
-      <c r="E28" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F28" s="69">
-        <v>96821.12</v>
-      </c>
-      <c r="G28" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" s="69" customFormat="1">
-      <c r="A29" s="69" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" s="69" customFormat="1">
-      <c r="A30" s="69" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B30" s="69" t="inlineStr">
-        <is>
-          <t>2号环保设备</t>
-        </is>
-      </c>
-      <c r="C30" s="69">
-        <v>28.80000000000291</v>
-      </c>
-      <c r="D30" s="69">
-        <v>97476.6</v>
-      </c>
-      <c r="E30" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F30" s="69">
-        <v>97447.8</v>
-      </c>
-      <c r="G30" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" s="69" customFormat="1">
-      <c r="A31" s="69" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B31" s="69" t="inlineStr">
-        <is>
-          <t>立机空调</t>
-        </is>
-      </c>
-      <c r="C31" s="69">
-        <v>0</v>
-      </c>
-      <c r="D31" s="69">
-        <v>113894</v>
-      </c>
-      <c r="E31" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F31" s="69">
-        <v>113894</v>
-      </c>
-      <c r="G31" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" s="69" customFormat="1">
-      <c r="A32" s="69" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B32" s="69" t="inlineStr">
-        <is>
-          <t>卧机空调</t>
-        </is>
-      </c>
-      <c r="C32" s="69">
-        <v>0</v>
-      </c>
-      <c r="D32" s="69">
-        <v>2261.2</v>
-      </c>
-      <c r="E32" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F32" s="69">
-        <v>2261.2</v>
-      </c>
-      <c r="G32" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" s="69" customFormat="1">
-      <c r="A33" s="69" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B33" s="69" t="inlineStr">
-        <is>
-          <t>北侧照明</t>
-        </is>
-      </c>
-      <c r="C33" s="69">
-        <v>42</v>
-      </c>
-      <c r="D33" s="69">
-        <v>66489.6</v>
-      </c>
-      <c r="E33" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F33" s="69">
-        <v>66447.6</v>
-      </c>
-      <c r="G33" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" s="69" customFormat="1">
-      <c r="A34" s="69" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B34" s="69" t="inlineStr">
-        <is>
-          <t>南侧照明（及办公室)</t>
-        </is>
-      </c>
-      <c r="C34" s="69">
-        <v>41.79999999998836</v>
-      </c>
-      <c r="D34" s="69">
-        <v>418310.2</v>
-      </c>
-      <c r="E34" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-      <c r="F34" s="69">
-        <v>418268.4</v>
-      </c>
-      <c r="G34" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" s="69" customFormat="1">
-      <c r="A35" s="69" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B35" s="69" t="inlineStr">
-        <is>
-          <t>1号卧机</t>
-        </is>
-      </c>
-      <c r="C35" s="69">
-        <v>0</v>
-      </c>
-      <c r="D35" s="69">
-        <v>82123.8</v>
-      </c>
-      <c r="E35" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F35" s="69">
-        <v>82123.8</v>
-      </c>
-      <c r="G35" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" s="69" customFormat="1">
-      <c r="A36" s="69" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B36" s="69" t="inlineStr">
-        <is>
-          <t>2号卧机</t>
-        </is>
-      </c>
-      <c r="C36" s="69">
-        <v>280.29999999993015</v>
-      </c>
-      <c r="D36" s="69">
-        <v>723094.6</v>
-      </c>
-      <c r="E36" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F36" s="69">
-        <v>722814.3</v>
-      </c>
-      <c r="G36" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" s="69" customFormat="1">
-      <c r="A37" s="69" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B37" s="69" t="inlineStr">
-        <is>
-          <t>3号卧机</t>
-        </is>
-      </c>
-      <c r="C37" s="69">
-        <v>303.79999999998836</v>
-      </c>
-      <c r="D37" s="69">
-        <v>362175.1</v>
-      </c>
-      <c r="E37" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F37" s="69">
-        <v>361871.3</v>
-      </c>
-      <c r="G37" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" s="69" customFormat="1">
-      <c r="A38" s="69" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B38" s="69" t="inlineStr">
-        <is>
-          <t>4号卧机</t>
-        </is>
-      </c>
-      <c r="C38" s="69">
-        <v>319.29999999998836</v>
-      </c>
-      <c r="D38" s="69">
-        <v>270085.6</v>
-      </c>
-      <c r="E38" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F38" s="69">
-        <v>269766.3</v>
-      </c>
-      <c r="G38" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" s="69" customFormat="1">
-      <c r="A39" s="69" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B39" s="69" t="inlineStr">
-        <is>
-          <t>5号卧机</t>
-        </is>
-      </c>
-      <c r="C39" s="69">
-        <v>110.40000000002328</v>
-      </c>
-      <c r="D39" s="69">
-        <v>318420</v>
-      </c>
-      <c r="E39" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F39" s="69">
-        <v>318309.6</v>
-      </c>
-      <c r="G39" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" s="69" customFormat="1">
-      <c r="A40" s="69" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B40" s="69" t="inlineStr">
-        <is>
-          <t>6号卧机</t>
-        </is>
-      </c>
-      <c r="C40" s="69">
-        <v>10.099999999998545</v>
-      </c>
-      <c r="D40" s="69">
-        <v>50104.7</v>
-      </c>
-      <c r="E40" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F40" s="69">
-        <v>50094.6</v>
-      </c>
-      <c r="G40" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" s="69" customFormat="1">
-      <c r="A41" s="69" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B41" s="69" t="inlineStr">
-        <is>
-          <t>7号卧机</t>
-        </is>
-      </c>
-      <c r="C41" s="69">
-        <v>0</v>
-      </c>
-      <c r="D41" s="69">
-        <v>88099.6</v>
-      </c>
-      <c r="E41" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:15</t>
-        </is>
-      </c>
-      <c r="F41" s="69">
-        <v>88099.6</v>
-      </c>
-      <c r="G41" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" s="69" customFormat="1">
-      <c r="A42" s="69" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B42" s="69" t="inlineStr">
-        <is>
-          <t>8号卧机</t>
-        </is>
-      </c>
-      <c r="C42" s="69">
-        <v>0</v>
-      </c>
-      <c r="D42" s="69">
-        <v>27038.7</v>
-      </c>
-      <c r="E42" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:15</t>
-        </is>
-      </c>
-      <c r="F42" s="69">
-        <v>27038.7</v>
-      </c>
-      <c r="G42" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" s="69" customFormat="1">
-      <c r="A43" s="69" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B43" s="69" t="inlineStr">
-        <is>
-          <t>9号卧机</t>
-        </is>
-      </c>
-      <c r="C43" s="69">
-        <v>258.6999999999971</v>
-      </c>
-      <c r="D43" s="69">
-        <v>113010.8</v>
-      </c>
-      <c r="E43" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:15</t>
-        </is>
-      </c>
-      <c r="F43" s="69">
-        <v>112752.1</v>
-      </c>
-      <c r="G43" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" s="69" customFormat="1">
-      <c r="A44" s="69" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B44" s="69" t="inlineStr">
-        <is>
-          <t>10号卧机</t>
-        </is>
-      </c>
-      <c r="C44" s="69">
-        <v>120.29999999999927</v>
-      </c>
-      <c r="D44" s="69">
-        <v>28716</v>
-      </c>
-      <c r="E44" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F44" s="69">
-        <v>28595.7</v>
-      </c>
-      <c r="G44" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" s="69" customFormat="1">
-      <c r="A45" s="69" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B45" s="69" t="inlineStr">
-        <is>
-          <t>11号卧机</t>
-        </is>
-      </c>
-      <c r="C45" s="69">
-        <v>0</v>
-      </c>
-      <c r="D45" s="69">
-        <v>2190.3</v>
-      </c>
-      <c r="E45" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F45" s="69">
-        <v>2190.3</v>
-      </c>
-      <c r="G45" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" s="69" customFormat="1">
-      <c r="A46" s="69" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B46" s="69" t="inlineStr">
-        <is>
-          <t>12号卧机</t>
-        </is>
-      </c>
-      <c r="C46" s="69">
-        <v>0</v>
-      </c>
-      <c r="D46" s="69">
-        <v>5764.9</v>
-      </c>
-      <c r="E46" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F46" s="69">
-        <v>5764.9</v>
-      </c>
-      <c r="G46" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" s="69" customFormat="1">
-      <c r="A47" s="69" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B47" s="69" t="inlineStr">
-        <is>
-          <t>13号卧机</t>
-        </is>
-      </c>
-      <c r="C47" s="69">
-        <v>0</v>
-      </c>
-      <c r="D47" s="69">
-        <v>14445.9</v>
-      </c>
-      <c r="E47" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F47" s="69">
-        <v>14445.9</v>
-      </c>
-      <c r="G47" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" s="69" customFormat="1">
-      <c r="A48" s="69" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B48" s="69" t="inlineStr">
-        <is>
-          <t>14号卧机</t>
-        </is>
-      </c>
-      <c r="C48" s="69">
-        <v>0</v>
-      </c>
-      <c r="D48" s="69">
-        <v>3230</v>
-      </c>
-      <c r="E48" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F48" s="69">
-        <v>3230</v>
-      </c>
-      <c r="G48" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" s="69" customFormat="1">
-      <c r="A49" s="69" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B49" s="69" t="inlineStr">
-        <is>
-          <t>15号卧机</t>
-        </is>
-      </c>
-      <c r="C49" s="69">
-        <v>0</v>
-      </c>
-      <c r="D49" s="69">
-        <v>40803.4</v>
-      </c>
-      <c r="E49" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F49" s="69">
-        <v>40803.4</v>
-      </c>
-      <c r="G49" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" s="69" customFormat="1">
-      <c r="A50" s="69" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B50" s="69" t="inlineStr">
-        <is>
-          <t>16号卧机</t>
-        </is>
-      </c>
-      <c r="C50" s="69">
-        <v>0</v>
-      </c>
-      <c r="D50" s="69">
-        <v>108158.8</v>
-      </c>
-      <c r="E50" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F50" s="69">
-        <v>108158.8</v>
-      </c>
-      <c r="G50" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" s="69" customFormat="1">
-      <c r="A51" s="69" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B51" s="69" t="inlineStr">
-        <is>
-          <t>17号卧机</t>
-        </is>
-      </c>
-      <c r="C51" s="69">
-        <v>26.59999999999127</v>
-      </c>
-      <c r="D51" s="69">
-        <v>89296.9</v>
-      </c>
-      <c r="E51" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F51" s="69">
-        <v>89270.3</v>
-      </c>
-      <c r="G51" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" s="69" customFormat="1">
-      <c r="A52" s="69" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B52" s="69" t="inlineStr">
-        <is>
-          <t>18号卧机</t>
-        </is>
-      </c>
-      <c r="C52" s="69">
-        <v>0</v>
-      </c>
-      <c r="D52" s="69">
-        <v>560712.3</v>
-      </c>
-      <c r="E52" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F52" s="69">
-        <v>560712.3</v>
-      </c>
-      <c r="G52" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" s="69" customFormat="1">
-      <c r="A53" s="69" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B53" s="69" t="inlineStr">
-        <is>
-          <t>19号卧机</t>
-        </is>
-      </c>
-      <c r="C53" s="69">
-        <v>630.3999999999069</v>
-      </c>
-      <c r="D53" s="69">
-        <v>1208581.4</v>
-      </c>
-      <c r="E53" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F53" s="69">
-        <v>1207951</v>
-      </c>
-      <c r="G53" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" s="69" customFormat="1">
-      <c r="A54" s="69" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B54" s="69" t="inlineStr">
-        <is>
-          <t>20号卧机</t>
-        </is>
-      </c>
-      <c r="C54" s="69">
-        <v>0</v>
-      </c>
-      <c r="D54" s="69">
-        <v>269844</v>
-      </c>
-      <c r="E54" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F54" s="69">
-        <v>269844</v>
-      </c>
-      <c r="G54" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" s="69" customFormat="1">
-      <c r="A55" s="69" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B55" s="69" t="inlineStr">
-        <is>
-          <t>21号卧机</t>
-        </is>
-      </c>
-      <c r="C55" s="69">
-        <v>0</v>
-      </c>
-      <c r="D55" s="69">
-        <v>612315.5</v>
-      </c>
-      <c r="E55" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F55" s="69">
-        <v>612315.5</v>
-      </c>
-      <c r="G55" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" s="69" customFormat="1">
-      <c r="A56" s="69" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="B56" s="69" t="inlineStr">
-        <is>
-          <t>4号冷却塔</t>
-        </is>
-      </c>
-      <c r="C56" s="69">
-        <v>9.69999999999709</v>
-      </c>
-      <c r="D56" s="69">
-        <v>82506.06</v>
-      </c>
-      <c r="E56" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F56" s="69">
-        <v>82496.36</v>
-      </c>
-      <c r="G56" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" s="69" customFormat="1">
-      <c r="A57" s="69" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B57" s="69" t="inlineStr">
-        <is>
-          <t>5号冷却塔</t>
-        </is>
-      </c>
-      <c r="C57" s="69">
-        <v>15.30000000000291</v>
-      </c>
-      <c r="D57" s="69">
-        <v>70714.96</v>
-      </c>
-      <c r="E57" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F57" s="69">
-        <v>70699.66</v>
-      </c>
-      <c r="G57" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" s="69" customFormat="1">
-      <c r="A58" s="69" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B58" s="69" t="inlineStr">
-        <is>
-          <t>4号环保设备</t>
-        </is>
-      </c>
-      <c r="C58" s="69">
-        <v>14.799999999995634</v>
-      </c>
-      <c r="D58" s="69">
-        <v>62218.2</v>
-      </c>
-      <c r="E58" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F58" s="69">
-        <v>62203.4</v>
-      </c>
-      <c r="G58" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" s="69" customFormat="1">
-      <c r="A59" s="69" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B59" s="69" t="inlineStr">
-        <is>
-          <t>5号环保设备</t>
-        </is>
-      </c>
-      <c r="C59" s="69">
-        <v>20.200000000004366</v>
-      </c>
-      <c r="D59" s="69">
-        <v>54179.4</v>
-      </c>
-      <c r="E59" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F59" s="69">
-        <v>54159.2</v>
-      </c>
-      <c r="G59" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" s="69" customFormat="1">
-      <c r="A60" s="69" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B60" s="69" t="inlineStr">
-        <is>
-          <t>3号国产大拉丝机</t>
-        </is>
-      </c>
-      <c r="C60" s="69">
-        <v>58</v>
-      </c>
-      <c r="D60" s="69">
-        <v>773486.2</v>
-      </c>
-      <c r="E60" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-      <c r="F60" s="69">
-        <v>773428.2</v>
-      </c>
-      <c r="G60" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" s="69" customFormat="1">
-      <c r="A61" s="69" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B61" s="69" t="inlineStr">
-        <is>
-          <t>2号国产大拉丝机</t>
-        </is>
-      </c>
-      <c r="C61" s="69">
-        <v>0</v>
-      </c>
-      <c r="D61" s="69">
-        <v>1862773.4</v>
-      </c>
-      <c r="E61" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-      <c r="F61" s="69">
-        <v>1862773.4</v>
-      </c>
-      <c r="G61" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" s="69" customFormat="1">
-      <c r="A62" s="69" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B62" s="69" t="inlineStr">
-        <is>
-          <t>1号大拉丝机</t>
-        </is>
-      </c>
-      <c r="C62" s="69">
-        <v>306.59999999999127</v>
-      </c>
-      <c r="D62" s="69">
-        <v>83202.9</v>
-      </c>
-      <c r="E62" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:08</t>
-        </is>
-      </c>
-      <c r="F62" s="69">
-        <v>82896.3</v>
-      </c>
-      <c r="G62" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" s="69" customFormat="1">
-      <c r="A63" s="69" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B63" s="69" t="inlineStr">
-        <is>
-          <t>6-7号冷却塔</t>
-        </is>
-      </c>
-      <c r="C63" s="69">
-        <v>34.660000000032596</v>
-      </c>
-      <c r="D63" s="69">
-        <v>463852.88</v>
-      </c>
-      <c r="E63" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F63" s="69">
-        <v>463818.22</v>
-      </c>
-      <c r="G63" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" s="69" customFormat="1">
-      <c r="A64" s="69" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B64" s="69" t="inlineStr">
-        <is>
-          <t>挤压机</t>
-        </is>
-      </c>
-      <c r="C64" s="69">
-        <v>108.60000000003492</v>
-      </c>
-      <c r="D64" s="69">
-        <v>278381.4</v>
-      </c>
-      <c r="E64" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-      <c r="F64" s="69">
-        <v>278272.8</v>
-      </c>
-      <c r="G64" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" s="69" customFormat="1">
-      <c r="A65" s="69" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B65" s="69" t="inlineStr">
-        <is>
-          <t>1号国产中拉丝机</t>
-        </is>
-      </c>
-      <c r="C65" s="69">
-        <v>0</v>
-      </c>
-      <c r="D65" s="69">
-        <v>474780.4</v>
-      </c>
-      <c r="E65" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-      <c r="F65" s="69">
-        <v>474780.4</v>
-      </c>
-      <c r="G65" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" s="69" customFormat="1">
-      <c r="A66" s="69" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B66" s="69" t="inlineStr">
-        <is>
-          <t>2号国产中拉丝机</t>
-        </is>
-      </c>
-      <c r="C66" s="69">
-        <v>0</v>
-      </c>
-      <c r="D66" s="69">
-        <v>254258.7</v>
-      </c>
-      <c r="E66" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:08</t>
-        </is>
-      </c>
-      <c r="F66" s="69">
-        <v>254258.7</v>
-      </c>
-      <c r="G66" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="67" s="69" customFormat="1">
-      <c r="A67" s="69" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B67" s="69" t="inlineStr">
-        <is>
-          <t>3号不带退火中拉丝机</t>
-        </is>
-      </c>
-      <c r="C67" s="69">
-        <v>76.76000000000931</v>
-      </c>
-      <c r="D67" s="69">
-        <v>162895.17</v>
-      </c>
-      <c r="E67" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:07</t>
-        </is>
-      </c>
-      <c r="F67" s="69">
-        <v>162818.41</v>
-      </c>
-      <c r="G67" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" s="69" customFormat="1">
-      <c r="A68" s="69" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B68" s="69" t="inlineStr">
-        <is>
-          <t>4号不带退火中拉丝机</t>
-        </is>
-      </c>
-      <c r="C68" s="69">
-        <v>74.86000000001513</v>
-      </c>
-      <c r="D68" s="69">
-        <v>162343.69</v>
-      </c>
-      <c r="E68" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:07</t>
-        </is>
-      </c>
-      <c r="F68" s="69">
-        <v>162268.83</v>
-      </c>
-      <c r="G68" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="69" s="69" customFormat="1">
-      <c r="A69" s="69" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B69" s="69" t="inlineStr">
-        <is>
-          <t>5号不带退火中拉丝机</t>
-        </is>
-      </c>
-      <c r="C69" s="69">
-        <v>86.9600000000064</v>
-      </c>
-      <c r="D69" s="69">
-        <v>81507.44</v>
-      </c>
-      <c r="E69" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:07</t>
-        </is>
-      </c>
-      <c r="F69" s="69">
-        <v>81420.48</v>
-      </c>
-      <c r="G69" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="70" s="69" customFormat="1">
-      <c r="A70" s="69" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B70" s="69" t="inlineStr">
-        <is>
-          <t>6号不带退火中拉丝机</t>
-        </is>
-      </c>
-      <c r="C70" s="69">
-        <v>82.83999999999651</v>
-      </c>
-      <c r="D70" s="69">
-        <v>51864</v>
-      </c>
-      <c r="E70" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:07</t>
-        </is>
-      </c>
-      <c r="F70" s="69">
-        <v>51781.16</v>
-      </c>
-      <c r="G70" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="71" s="69" customFormat="1">
-      <c r="A71" s="69" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B71" s="69" t="inlineStr">
-        <is>
-          <t>7号不带退火中拉丝机</t>
-        </is>
-      </c>
-      <c r="C71" s="69">
-        <v>8.239999999997963</v>
-      </c>
-      <c r="D71" s="69">
-        <v>46098.72</v>
-      </c>
-      <c r="E71" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:07</t>
-        </is>
-      </c>
-      <c r="F71" s="69">
-        <v>46090.48</v>
-      </c>
-      <c r="G71" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="72" s="69" customFormat="1">
-      <c r="A72" s="69" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B72" s="69" t="inlineStr">
-        <is>
-          <t>8号冷却塔</t>
-        </is>
-      </c>
-      <c r="C72" s="69">
-        <v>24.089999999996508</v>
-      </c>
-      <c r="D72" s="69">
-        <v>151396.31</v>
-      </c>
-      <c r="E72" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F72" s="69">
-        <v>151372.22</v>
-      </c>
-      <c r="G72" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" s="69" customFormat="1">
-      <c r="A73" s="69" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B73" s="69" t="inlineStr">
-        <is>
-          <t>1号16头22模多头拉丝机</t>
-        </is>
-      </c>
-      <c r="C73" s="69">
-        <v>0</v>
-      </c>
-      <c r="D73" s="69">
-        <v>10552.2</v>
-      </c>
-      <c r="E73" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-      <c r="F73" s="69">
-        <v>10552.2</v>
-      </c>
-      <c r="G73" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="74" s="69" customFormat="1">
-      <c r="A74" s="69" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B74" s="69" t="inlineStr">
-        <is>
-          <t>2号24头25模多头拉丝机</t>
-        </is>
-      </c>
-      <c r="C74" s="69">
-        <v>127.39999999990687</v>
-      </c>
-      <c r="D74" s="69">
-        <v>566951.2</v>
-      </c>
-      <c r="E74" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-      <c r="F74" s="69">
-        <v>566823.8</v>
-      </c>
-      <c r="G74" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="75" s="69" customFormat="1">
-      <c r="A75" s="69" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B75" s="69" t="inlineStr">
-        <is>
-          <t>3号16头22模多头拉丝机</t>
-        </is>
-      </c>
-      <c r="C75" s="69">
-        <v>20.599999999976717</v>
-      </c>
-      <c r="D75" s="69">
-        <v>776014</v>
-      </c>
-      <c r="E75" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:08</t>
-        </is>
-      </c>
-      <c r="F75" s="69">
-        <v>775993.4</v>
-      </c>
-      <c r="G75" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="76" s="69" customFormat="1">
-      <c r="A76" s="69" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="B76" s="69" t="inlineStr">
-        <is>
-          <t>4号16头31模多头拉丝机</t>
-        </is>
-      </c>
-      <c r="C76" s="69">
-        <v>176</v>
-      </c>
-      <c r="D76" s="69">
-        <v>538131.4</v>
-      </c>
-      <c r="E76" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:08</t>
-        </is>
-      </c>
-      <c r="F76" s="69">
-        <v>537955.4</v>
-      </c>
-      <c r="G76" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="77" s="69" customFormat="1">
-      <c r="A77" s="69" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B77" s="69" t="inlineStr">
-        <is>
-          <t>5号20头19模多头拉丝机</t>
-        </is>
-      </c>
-      <c r="C77" s="69">
-        <v>38.59999999997672</v>
-      </c>
-      <c r="D77" s="69">
-        <v>476367.3</v>
-      </c>
-      <c r="E77" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:08</t>
-        </is>
-      </c>
-      <c r="F77" s="69">
-        <v>476328.7</v>
-      </c>
-      <c r="G77" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="78" s="69" customFormat="1">
-      <c r="A78" s="69" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B78" s="69" t="inlineStr">
-        <is>
-          <t>12-13号冷却塔</t>
-        </is>
-      </c>
-      <c r="C78" s="69">
-        <v>69.55999999993946</v>
-      </c>
-      <c r="D78" s="69">
-        <v>527859.44</v>
-      </c>
-      <c r="E78" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F78" s="69">
-        <v>527789.88</v>
-      </c>
-      <c r="G78" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" s="69" customFormat="1">
-      <c r="A79" s="69" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B79" s="69" t="inlineStr">
-        <is>
-          <t>9号冷却塔</t>
-        </is>
-      </c>
-      <c r="C79" s="69">
-        <v>18.69000000000233</v>
-      </c>
-      <c r="D79" s="69">
-        <v>159916.47</v>
-      </c>
-      <c r="E79" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F79" s="69">
-        <v>159897.78</v>
-      </c>
-      <c r="G79" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="80" s="69" customFormat="1">
-      <c r="A80" s="69" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="B80" s="69" t="inlineStr">
-        <is>
-          <t>10号冷却塔</t>
-        </is>
-      </c>
-      <c r="C80" s="69">
-        <v>23.029999999998836</v>
-      </c>
-      <c r="D80" s="69">
-        <v>212864.19</v>
-      </c>
-      <c r="E80" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F80" s="69">
-        <v>212841.16</v>
-      </c>
-      <c r="G80" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="81" s="69" customFormat="1">
-      <c r="A81" s="69" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B81" s="69" t="inlineStr">
-        <is>
-          <t>11号冷却塔</t>
-        </is>
-      </c>
-      <c r="C81" s="69">
-        <v>5.529999999998836</v>
-      </c>
-      <c r="D81" s="69">
-        <v>66678.48</v>
-      </c>
-      <c r="E81" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F81" s="69">
-        <v>66672.95</v>
-      </c>
-      <c r="G81" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="82" s="69" customFormat="1">
-      <c r="A82" s="69" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B82" s="69" t="inlineStr">
-        <is>
-          <t>5#动力柜（小拉丝机1-20#）</t>
-        </is>
-      </c>
-      <c r="C82" s="69">
-        <v>67.79999999998836</v>
-      </c>
-      <c r="D82" s="69">
-        <v>351002.3</v>
-      </c>
-      <c r="E82" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F82" s="69">
-        <v>350934.5</v>
-      </c>
-      <c r="G82" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="83" s="69" customFormat="1">
-      <c r="A83" s="69" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="B83" s="69" t="inlineStr">
-        <is>
-          <t>6#动力柜（小拉丝机21-40#）</t>
-        </is>
-      </c>
-      <c r="C83" s="69">
-        <v>46</v>
-      </c>
-      <c r="D83" s="69">
-        <v>419703</v>
-      </c>
-      <c r="E83" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F83" s="69">
-        <v>419657</v>
-      </c>
-      <c r="G83" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="84" s="69" customFormat="1">
-      <c r="A84" s="69" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B84" s="69" t="inlineStr">
-        <is>
-          <t>7#动力柜（小拉丝机41-60#）</t>
-        </is>
-      </c>
-      <c r="C84" s="69">
-        <v>39.5</v>
-      </c>
-      <c r="D84" s="69">
-        <v>325610.8</v>
-      </c>
-      <c r="E84" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F84" s="69">
-        <v>325571.3</v>
-      </c>
-      <c r="G84" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="85" s="69" customFormat="1">
-      <c r="A85" s="69" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-    </row>
-    <row r="86" s="69" customFormat="1">
-      <c r="A86" s="69" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-    </row>
-    <row r="87" s="69" customFormat="1">
-      <c r="A87" s="69" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-    </row>
-    <row r="88" s="69" customFormat="1">
-      <c r="A88" s="69" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-    </row>
-    <row r="89" s="69" customFormat="1">
-      <c r="A89" s="69" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-    </row>
-    <row r="90" s="69" customFormat="1">
-      <c r="A90" s="69" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-    </row>
-    <row r="91" s="69" customFormat="1">
-      <c r="A91" s="69" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-    </row>
-    <row r="92" s="69" customFormat="1">
-      <c r="A92" s="69" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-    </row>
-    <row r="93" s="69" customFormat="1">
-      <c r="A93" s="69" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="B93" s="69" t="inlineStr">
-        <is>
-          <t>绞线机1-12号和12-13号冷却塔电机电源</t>
-        </is>
-      </c>
-      <c r="C93" s="69">
-        <v>69.20000000006985</v>
-      </c>
-      <c r="D93" s="69">
-        <v>729326.3</v>
-      </c>
-      <c r="E93" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F93" s="69">
-        <v>729257.1</v>
-      </c>
-      <c r="G93" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="94" s="69" customFormat="1">
-      <c r="A94" s="69" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="B94" s="69" t="inlineStr">
-        <is>
-          <t>绞线机13-31号</t>
-        </is>
-      </c>
-      <c r="C94" s="69">
-        <v>0</v>
-      </c>
-      <c r="D94" s="69">
-        <v>244964.4</v>
-      </c>
-      <c r="E94" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F94" s="69">
-        <v>244964.4</v>
-      </c>
-      <c r="G94" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="95" s="69" customFormat="1">
-      <c r="A95" s="69" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B95" s="69" t="inlineStr">
-        <is>
-          <t>绞线机32-45号</t>
-        </is>
-      </c>
-      <c r="C95" s="69">
-        <v>5.2999999999883585</v>
-      </c>
-      <c r="D95" s="69">
-        <v>236386.8</v>
-      </c>
-      <c r="E95" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F95" s="69">
-        <v>236381.5</v>
-      </c>
-      <c r="G95" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="96" s="69" customFormat="1">
-      <c r="A96" s="69" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="B96" s="69" t="inlineStr">
-        <is>
-          <t>绞线机46-59号</t>
-        </is>
-      </c>
-      <c r="C96" s="69">
-        <v>0</v>
-      </c>
-      <c r="D96" s="69">
-        <v>183052.4</v>
-      </c>
-      <c r="E96" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F96" s="69">
-        <v>183052.4</v>
-      </c>
-      <c r="G96" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="97" s="69" customFormat="1">
-      <c r="A97" s="69" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B97" s="69" t="inlineStr">
-        <is>
-          <t>二车间北侧照明及行车电源</t>
-        </is>
-      </c>
-      <c r="C97" s="69">
-        <v>0.10000000000582077</v>
-      </c>
-      <c r="D97" s="69">
-        <v>250291.4</v>
-      </c>
-      <c r="E97" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-      <c r="F97" s="69">
-        <v>250291.3</v>
-      </c>
-      <c r="G97" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="98" s="69" customFormat="1">
-      <c r="A98" s="69" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="B98" s="69" t="inlineStr">
-        <is>
-          <t>二车间南侧照明（及办公室）</t>
-        </is>
-      </c>
-      <c r="C98" s="69">
-        <v>0.8999999999650754</v>
-      </c>
-      <c r="D98" s="69">
-        <v>341405.3</v>
-      </c>
-      <c r="E98" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F98" s="69">
-        <v>341404.4</v>
-      </c>
-      <c r="G98" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="99" s="69" customFormat="1">
-      <c r="A99" s="69" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B99" s="69" t="inlineStr">
-        <is>
-          <t>1号挤出机</t>
-        </is>
-      </c>
-      <c r="C99" s="69">
-        <v>0</v>
-      </c>
-      <c r="D99" s="69">
-        <v>11256.4</v>
-      </c>
-      <c r="E99" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:35</t>
-        </is>
-      </c>
-      <c r="F99" s="69">
-        <v>11256.4</v>
-      </c>
-      <c r="G99" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="100" s="69" customFormat="1">
-      <c r="A100" s="69" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B100" s="69" t="inlineStr">
-        <is>
-          <t>2号挤出机</t>
-        </is>
-      </c>
-      <c r="C100" s="69">
-        <v>26.19999999999709</v>
-      </c>
-      <c r="D100" s="69">
-        <v>63063.6</v>
-      </c>
-      <c r="E100" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F100" s="69">
-        <v>63037.4</v>
-      </c>
-      <c r="G100" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="101" s="69" customFormat="1">
-      <c r="A101" s="69" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B101" s="69" t="inlineStr">
-        <is>
-          <t>3号挤出机</t>
-        </is>
-      </c>
-      <c r="C101" s="69">
-        <v>0</v>
-      </c>
-      <c r="D101" s="69">
-        <v>8262.2</v>
-      </c>
-      <c r="E101" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F101" s="69">
-        <v>8262.2</v>
-      </c>
-      <c r="G101" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="102" s="69" customFormat="1">
-      <c r="A102" s="69" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B102" s="69" t="inlineStr">
-        <is>
-          <t>4号挤出机</t>
-        </is>
-      </c>
-      <c r="C102" s="69">
-        <v>45.30000000000291</v>
-      </c>
-      <c r="D102" s="69">
-        <v>62984.8</v>
-      </c>
-      <c r="E102" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F102" s="69">
-        <v>62939.5</v>
-      </c>
-      <c r="G102" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="103" s="69" customFormat="1">
-      <c r="A103" s="69" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="B103" s="69" t="inlineStr">
-        <is>
-          <t>5号挤出机</t>
-        </is>
-      </c>
-      <c r="C103" s="69">
-        <v>0</v>
-      </c>
-      <c r="D103" s="69">
-        <v>2712.7</v>
-      </c>
-      <c r="E103" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F103" s="69">
-        <v>2712.7</v>
-      </c>
-      <c r="G103" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="104" s="69" customFormat="1">
-      <c r="A104" s="69" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="B104" s="69" t="inlineStr">
-        <is>
-          <t>6号挤出机</t>
-        </is>
-      </c>
-      <c r="C104" s="69">
-        <v>0</v>
-      </c>
-      <c r="D104" s="69">
-        <v>7083.8</v>
-      </c>
-      <c r="E104" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F104" s="69">
-        <v>7083.8</v>
-      </c>
-      <c r="G104" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="105" s="69" customFormat="1">
-      <c r="A105" s="69" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="B105" s="69" t="inlineStr">
-        <is>
-          <t>7号挤出机</t>
-        </is>
-      </c>
-      <c r="C105" s="69">
-        <v>54</v>
-      </c>
-      <c r="D105" s="69">
-        <v>58489.1</v>
-      </c>
-      <c r="E105" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F105" s="69">
-        <v>58435.1</v>
-      </c>
-      <c r="G105" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="106" s="69" customFormat="1">
-      <c r="A106" s="69" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="B106" s="69" t="inlineStr">
-        <is>
-          <t>8号挤出机</t>
-        </is>
-      </c>
-      <c r="C106" s="69">
-        <v>0</v>
-      </c>
-      <c r="D106" s="69">
-        <v>2038.2</v>
-      </c>
-      <c r="E106" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F106" s="69">
-        <v>2038.2</v>
-      </c>
-      <c r="G106" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="107" s="69" customFormat="1">
-      <c r="A107" s="69" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="B107" s="69" t="inlineStr">
-        <is>
-          <t>9号挤出机</t>
-        </is>
-      </c>
-      <c r="C107" s="69">
-        <v>38.59999999999127</v>
-      </c>
-      <c r="D107" s="69">
-        <v>68965.2</v>
-      </c>
-      <c r="E107" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F107" s="69">
-        <v>68926.6</v>
-      </c>
-      <c r="G107" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="108" s="69" customFormat="1">
-      <c r="A108" s="69" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="B108" s="69" t="inlineStr">
-        <is>
-          <t>10号挤出机</t>
-        </is>
-      </c>
-      <c r="C108" s="69">
-        <v>20.80000000000291</v>
-      </c>
-      <c r="D108" s="69">
-        <v>74865.2</v>
-      </c>
-      <c r="E108" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F108" s="69">
-        <v>74844.4</v>
-      </c>
-      <c r="G108" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="109" s="69" customFormat="1">
-      <c r="A109" s="69" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="B109" s="69" t="inlineStr">
-        <is>
-          <t>11号挤出机</t>
-        </is>
-      </c>
-      <c r="C109" s="69">
-        <v>0</v>
-      </c>
-      <c r="D109" s="69">
-        <v>16036.9</v>
-      </c>
-      <c r="E109" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F109" s="69">
-        <v>16036.9</v>
-      </c>
-      <c r="G109" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="110" s="69" customFormat="1">
-      <c r="A110" s="69" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-    </row>
-    <row r="111" s="69" customFormat="1">
-      <c r="A111" s="69" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="B111" s="69" t="inlineStr">
-        <is>
-          <t>14号冷却塔</t>
-        </is>
-      </c>
-      <c r="C111" s="69">
-        <v>8.680000000000291</v>
-      </c>
-      <c r="D111" s="69">
-        <v>62164.38</v>
-      </c>
-      <c r="E111" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F111" s="69">
-        <v>62155.7</v>
-      </c>
-      <c r="G111" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="112" s="69" customFormat="1">
-      <c r="A112" s="69" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="B112" s="69" t="inlineStr">
-        <is>
-          <t>15号冷却塔</t>
-        </is>
-      </c>
-      <c r="C112" s="69">
-        <v>15.440000000002328</v>
-      </c>
-      <c r="D112" s="69">
-        <v>67739.24</v>
-      </c>
-      <c r="E112" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F112" s="69">
-        <v>67723.8</v>
-      </c>
-      <c r="G112" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="113" s="69" customFormat="1">
-      <c r="A113" s="69" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-    </row>
-    <row r="114" s="69" customFormat="1">
-      <c r="A114" s="69" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="B114" s="69" t="inlineStr">
-        <is>
-          <t>铜米机</t>
-        </is>
-      </c>
-      <c r="C114" s="69">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="D114" s="69">
-        <v>108.9</v>
-      </c>
-      <c r="E114" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F114" s="69">
-        <v>106.2</v>
-      </c>
-      <c r="G114" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="115" s="69" customFormat="1">
-      <c r="A115" s="69" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="B115" s="69" t="inlineStr">
-        <is>
-          <t>1号悬臂单绞机</t>
-        </is>
-      </c>
-      <c r="C115" s="69">
-        <v>1.599999999999909</v>
-      </c>
-      <c r="D115" s="69">
-        <v>2832.6</v>
-      </c>
-      <c r="E115" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F115" s="69">
-        <v>2831</v>
-      </c>
-      <c r="G115" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="116" s="69" customFormat="1">
-      <c r="A116" s="69" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="B116" s="69" t="inlineStr">
-        <is>
-          <t>2号悬臂单绞机</t>
-        </is>
-      </c>
-      <c r="C116" s="69">
-        <v>0</v>
-      </c>
-      <c r="D116" s="69">
-        <v>659.3</v>
-      </c>
-      <c r="E116" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F116" s="69">
-        <v>659.3</v>
-      </c>
-      <c r="G116" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="117" s="69" customFormat="1">
-      <c r="A117" s="69" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="B117" s="69" t="inlineStr">
-        <is>
-          <t>桑普1000+1250电源1</t>
-        </is>
-      </c>
-      <c r="C117" s="69">
-        <v>0</v>
-      </c>
-      <c r="D117" s="69">
-        <v>2889.8</v>
-      </c>
-      <c r="E117" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F117" s="69">
-        <v>2889.8</v>
-      </c>
-      <c r="G117" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="118" s="69" customFormat="1">
-      <c r="A118" s="69" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="B118" s="69" t="inlineStr">
-        <is>
-          <t>桑普1000+1250电源2</t>
-        </is>
-      </c>
-      <c r="C118" s="69">
-        <v>0</v>
-      </c>
-      <c r="D118" s="69">
-        <v>300.7</v>
-      </c>
-      <c r="E118" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F118" s="69">
-        <v>300.7</v>
-      </c>
-      <c r="G118" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="119" s="69" customFormat="1">
-      <c r="A119" s="69" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="B119" s="69" t="inlineStr">
-        <is>
-          <t>3号成缆机</t>
-        </is>
-      </c>
-      <c r="C119" s="69">
-        <v>0</v>
-      </c>
-      <c r="D119" s="69">
-        <v>385.1</v>
-      </c>
-      <c r="E119" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F119" s="69">
-        <v>385.1</v>
-      </c>
-      <c r="G119" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="120" s="69" customFormat="1">
-      <c r="A120" s="69" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="B120" s="69" t="inlineStr">
-        <is>
-          <t>桑普1000绞线机</t>
-        </is>
-      </c>
-      <c r="C120" s="69">
-        <v>0</v>
-      </c>
-      <c r="D120" s="69">
-        <v>12453</v>
-      </c>
-      <c r="E120" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F120" s="69">
-        <v>12453</v>
-      </c>
-      <c r="G120" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="121" s="69" customFormat="1">
-      <c r="A121" s="69" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="B121" s="69" t="inlineStr">
-        <is>
-          <t>63号笼绞机</t>
-        </is>
-      </c>
-      <c r="C121" s="69">
-        <v>0</v>
-      </c>
-      <c r="D121" s="69">
-        <v>37709.2</v>
-      </c>
-      <c r="E121" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F121" s="69">
-        <v>37709.2</v>
-      </c>
-      <c r="G121" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="122" s="69" customFormat="1">
-      <c r="A122" s="69" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="B122" s="69" t="inlineStr">
-        <is>
-          <t>64号笼绞机</t>
-        </is>
-      </c>
-      <c r="C122" s="69">
-        <v>0</v>
-      </c>
-      <c r="D122" s="69">
-        <v>32106.4</v>
-      </c>
-      <c r="E122" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F122" s="69">
-        <v>32106.4</v>
-      </c>
-      <c r="G122" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="123" s="69" customFormat="1">
-      <c r="A123" s="69" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-    </row>
-    <row r="124" s="69" customFormat="1">
-      <c r="A124" s="69" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B124" s="69" t="inlineStr">
-        <is>
-          <t>16号冷却塔</t>
-        </is>
-      </c>
-      <c r="C124" s="69">
-        <v>0.7800000000061118</v>
-      </c>
-      <c r="D124" s="69">
-        <v>39318.3</v>
-      </c>
-      <c r="E124" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:01</t>
-        </is>
-      </c>
-      <c r="F124" s="69">
-        <v>39317.52</v>
-      </c>
-      <c r="G124" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:21:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="125" s="69" customFormat="1">
-      <c r="A125" s="69" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="B125" s="69" t="inlineStr">
-        <is>
-          <t>电子加速器</t>
-        </is>
-      </c>
-      <c r="C125" s="69">
-        <v>0</v>
-      </c>
-      <c r="D125" s="69">
-        <v>89169.5</v>
-      </c>
-      <c r="E125" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F125" s="69">
-        <v>89169.5</v>
-      </c>
-      <c r="G125" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="126" s="69" customFormat="1">
-      <c r="A126" s="69" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="B126" s="69" t="inlineStr">
-        <is>
-          <t>复绕机（电气值班室外）</t>
-        </is>
-      </c>
-      <c r="C126" s="69">
-        <v>5.300000000001091</v>
-      </c>
-      <c r="D126" s="69">
-        <v>15266.7</v>
-      </c>
-      <c r="E126" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F126" s="69">
-        <v>15261.4</v>
-      </c>
-      <c r="G126" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="127" s="69" customFormat="1">
-      <c r="A127" s="69" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="B127" s="69" t="inlineStr">
-        <is>
-          <t>三车间南侧照明（及办公室）</t>
-        </is>
-      </c>
-      <c r="C127" s="69">
-        <v>4.5</v>
-      </c>
-      <c r="D127" s="69">
-        <v>158018.5</v>
-      </c>
-      <c r="E127" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F127" s="69">
-        <v>158014</v>
-      </c>
-      <c r="G127" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="128" s="69" customFormat="1">
-      <c r="A128" s="69" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="B128" s="69" t="inlineStr">
-        <is>
-          <t>三车间北侧照明及行车电源</t>
-        </is>
-      </c>
-      <c r="C128" s="69">
-        <v>0.7999999999883585</v>
-      </c>
-      <c r="D128" s="69">
-        <v>138577.9</v>
-      </c>
-      <c r="E128" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F128" s="69">
-        <v>138577.1</v>
-      </c>
-      <c r="G128" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="129" s="69" customFormat="1">
-      <c r="A129" s="69" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-    </row>
-    <row r="130" s="69" customFormat="1">
-      <c r="A130" s="69" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-    </row>
-    <row r="131" s="69" customFormat="1">
-      <c r="A131" s="69" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-    </row>
-    <row r="132" s="69" customFormat="1">
-      <c r="A132" s="69" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-    </row>
-    <row r="133" s="69" customFormat="1">
-      <c r="A133" s="69" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="B133" s="69" t="inlineStr">
-        <is>
-          <t>研发楼</t>
-        </is>
-      </c>
-      <c r="C133" s="69">
-        <v>78.89999999996508</v>
-      </c>
-      <c r="D133" s="69">
-        <v>415121.1</v>
-      </c>
-      <c r="E133" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F133" s="69">
-        <v>415042.2</v>
-      </c>
-      <c r="G133" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="134" s="69" customFormat="1">
-      <c r="A134" s="69" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-    </row>
-    <row r="135" s="69" customFormat="1">
-      <c r="A135" s="69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="136" s="69" customFormat="1">
-      <c r="A136" s="69" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-    </row>
-    <row r="137" s="69" customFormat="1">
-      <c r="A137" s="69" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-    </row>
-    <row r="138" s="69" customFormat="1">
-      <c r="A138" s="69" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-    </row>
-    <row r="139" s="69" customFormat="1">
-      <c r="A139" s="69" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-    </row>
-    <row r="140" s="69" customFormat="1">
-      <c r="A140" s="69" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-    </row>
-    <row r="141" s="69" customFormat="1">
-      <c r="A141" s="69" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-    </row>
-    <row r="142" s="69" customFormat="1">
-      <c r="A142" s="69" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-    </row>
-    <row r="143" s="69" customFormat="1">
-      <c r="A143" s="69" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-    </row>
-    <row r="144" s="69" customFormat="1">
-      <c r="A144" s="69" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-    </row>
-    <row r="145" s="69" customFormat="1">
-      <c r="A145" s="69" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="B145" s="69" t="inlineStr">
-        <is>
-          <t>1号变压器</t>
-        </is>
-      </c>
-      <c r="C145" s="69">
-        <v>0</v>
-      </c>
-      <c r="D145" s="69">
-        <v>315941.3</v>
-      </c>
-      <c r="E145" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F145" s="69">
-        <v>315941.3</v>
-      </c>
-      <c r="G145" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="146" s="69" customFormat="1">
-      <c r="A146" s="69" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="B146" s="69" t="inlineStr">
-        <is>
-          <t>2号变压器</t>
-        </is>
-      </c>
-      <c r="C146" s="69">
-        <v>628.3000000000466</v>
-      </c>
-      <c r="D146" s="69">
-        <v>1424261.8</v>
-      </c>
-      <c r="E146" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:14</t>
-        </is>
-      </c>
-      <c r="F146" s="69">
-        <v>1423633.5</v>
-      </c>
-      <c r="G146" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="147" s="69" customFormat="1">
-      <c r="A147" s="69" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="B147" s="69" t="inlineStr">
-        <is>
-          <t>3号变压器</t>
-        </is>
-      </c>
-      <c r="C147" s="69">
-        <v>376.80000000074506</v>
-      </c>
-      <c r="D147" s="69">
-        <v>7905828.9</v>
-      </c>
-      <c r="E147" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:13</t>
-        </is>
-      </c>
-      <c r="F147" s="69">
-        <v>7905452.1</v>
-      </c>
-      <c r="G147" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="148" s="69" customFormat="1">
-      <c r="A148" s="69" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="B148" s="69" t="inlineStr">
-        <is>
-          <t>4号变压器</t>
-        </is>
-      </c>
-      <c r="C148" s="69">
-        <v>606.5</v>
-      </c>
-      <c r="D148" s="69">
-        <v>2700482</v>
-      </c>
-      <c r="E148" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:17</t>
-        </is>
-      </c>
-      <c r="F148" s="69">
-        <v>2699875.5</v>
-      </c>
-      <c r="G148" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="149" s="69" customFormat="1">
-      <c r="A149" s="69" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="B149" s="69" t="inlineStr">
-        <is>
-          <t>5号变压器</t>
-        </is>
-      </c>
-      <c r="C149" s="69">
-        <v>1355.2999999998137</v>
-      </c>
-      <c r="D149" s="69">
-        <v>2569180</v>
-      </c>
-      <c r="E149" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:15</t>
-        </is>
-      </c>
-      <c r="F149" s="69">
-        <v>2567824.7</v>
-      </c>
-      <c r="G149" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="150" s="69" customFormat="1">
-      <c r="A150" s="69" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="B150" s="69" t="inlineStr">
-        <is>
-          <t>6号变压器</t>
-        </is>
-      </c>
-      <c r="C150" s="69">
-        <v>642.6000000005588</v>
-      </c>
-      <c r="D150" s="69">
-        <v>6249591.7</v>
-      </c>
-      <c r="E150" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:10</t>
-        </is>
-      </c>
-      <c r="F150" s="69">
-        <v>6248949.1</v>
-      </c>
-      <c r="G150" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="151" s="69" customFormat="1">
-      <c r="A151" s="69" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="B151" s="69" t="inlineStr">
-        <is>
-          <t>7号变压器</t>
-        </is>
-      </c>
-      <c r="C151" s="69">
-        <v>924.1000000000931</v>
-      </c>
-      <c r="D151" s="69">
-        <v>3357696.2</v>
-      </c>
-      <c r="E151" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:08</t>
-        </is>
-      </c>
-      <c r="F151" s="69">
-        <v>3356772.1</v>
-      </c>
-      <c r="G151" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="152" s="69" customFormat="1">
-      <c r="A152" s="69" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="B152" s="69" t="inlineStr">
-        <is>
-          <t>8号变压器</t>
-        </is>
-      </c>
-      <c r="C152" s="69">
-        <v>540.6000000000931</v>
-      </c>
-      <c r="D152" s="69">
-        <v>3786486</v>
-      </c>
-      <c r="E152" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:12</t>
-        </is>
-      </c>
-      <c r="F152" s="69">
-        <v>3785945.4</v>
-      </c>
-      <c r="G152" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="153" s="69" customFormat="1">
-      <c r="A153" s="69" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-    </row>
-    <row r="154" s="69" customFormat="1">
-      <c r="A154" s="69" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="B154" s="69" t="inlineStr">
-        <is>
-          <t>10号变压器</t>
-        </is>
-      </c>
-      <c r="C154" s="69">
-        <v>342.29999999998836</v>
-      </c>
-      <c r="D154" s="69">
-        <v>428848.1</v>
-      </c>
-      <c r="E154" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 12:33:36</t>
-        </is>
-      </c>
-      <c r="F154" s="69">
-        <v>428505.8</v>
-      </c>
-      <c r="G154" s="69" t="inlineStr">
-        <is>
-          <t>2025-04-01 10:22:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="155" s="69" customFormat="1">
-      <c r="A155" s="69" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
+      <c r="F146" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>193</v>
+      </c>
+      <c r="C147">
+        <v>1416446.1</v>
+      </c>
+      <c r="D147" s="3">
+        <v>45747.3765350003</v>
+      </c>
+      <c r="E147">
+        <v>1239736.7</v>
+      </c>
+      <c r="F147" s="3">
+        <v>45716.9601353182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>194</v>
+      </c>
+      <c r="C148">
+        <v>7900817.1</v>
+      </c>
+      <c r="D148" s="3">
+        <v>45747.3765391206</v>
+      </c>
+      <c r="E148">
+        <v>7668035.6</v>
+      </c>
+      <c r="F148" s="3">
+        <v>45716.9601392766</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149">
+        <v>2693629</v>
+      </c>
+      <c r="D149" s="3">
+        <v>45747.3765432294</v>
+      </c>
+      <c r="E149">
+        <v>2461160.9</v>
+      </c>
+      <c r="F149" s="3">
+        <v>45716.9601432044</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>196</v>
+      </c>
+      <c r="C150">
+        <v>2553390</v>
+      </c>
+      <c r="D150" s="3">
+        <v>45747.3765473961</v>
+      </c>
+      <c r="E150">
+        <v>2210593.6</v>
+      </c>
+      <c r="F150" s="3">
+        <v>45716.9601473668</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>197</v>
+      </c>
+      <c r="C151">
+        <v>6235270</v>
+      </c>
+      <c r="D151" s="3">
+        <v>45747.3765526044</v>
+      </c>
+      <c r="E151">
+        <v>5876157.1</v>
+      </c>
+      <c r="F151" s="3">
+        <v>45716.9601514757</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>198</v>
+      </c>
+      <c r="C152">
+        <v>3349178.9</v>
+      </c>
+      <c r="D152" s="3">
+        <v>45747.3765577823</v>
+      </c>
+      <c r="E152">
+        <v>3173564.9</v>
+      </c>
+      <c r="F152" s="3">
+        <v>45716.9601569271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>199</v>
+      </c>
+      <c r="C153">
+        <v>3777963.6</v>
+      </c>
+      <c r="D153" s="3">
+        <v>45747.376561827</v>
+      </c>
+      <c r="E153">
+        <v>3549803.6</v>
+      </c>
+      <c r="F153" s="3">
+        <v>45716.9601610937</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>200</v>
+      </c>
+      <c r="C154" t="s">
+        <v>213</v>
+      </c>
+      <c r="D154" t="s">
+        <v>213</v>
+      </c>
+      <c r="E154" t="s">
+        <v>213</v>
+      </c>
+      <c r="F154" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>201</v>
+      </c>
+      <c r="C155">
+        <v>424297.7</v>
+      </c>
+      <c r="D155" s="3">
+        <v>45747.376629804</v>
+      </c>
+      <c r="E155">
+        <v>348843.7</v>
+      </c>
+      <c r="F155" s="3">
+        <v>45716.9602289988</v>
       </c>
     </row>
   </sheetData>

--- a/bin/2025年各工段设备用电起止明细表.xlsx
+++ b/bin/2025年各工段设备用电起止明细表.xlsx
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -695,7 +695,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -713,33 +713,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -782,21 +782,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -825,7 +825,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -833,7 +833,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
@@ -841,7 +841,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -849,7 +849,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -857,7 +857,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -872,7 +872,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -880,7 +880,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -888,7 +888,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -903,7 +903,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1168,23 +1168,23 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -1192,23 +1192,23 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom/>
@@ -1216,31 +1216,31 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
@@ -1249,23 +1249,23 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,23 +1273,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,20 +1298,20 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,189 +1563,192 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="70">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1834,9 +1837,13 @@
         <color theme="1"/>
       </font>
       <border>
+        <left/>
+        <right/>
         <top style="double">
           <color theme="4"/>
         </top>
+        <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1868,9 +1875,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1881,9 +1886,13 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1897,9 +1906,13 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1912,9 +1925,13 @@
         <color theme="1"/>
       </font>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1929,12 +1946,15 @@
         <color theme="1"/>
       </font>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1965,12 +1985,15 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </top>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1985,14 +2008,18 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+  <tableStyles count="2" defaultPivotStyle="PivotStylePreset2_Accent1" defaultTableStyle="TableStylePreset3_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2001,7 +2028,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" pivot="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -2023,7 +2050,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
@@ -2266,6 +2293,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -15289,7 +15317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <dimension ref="A1:F155"/>
   <sheetViews>
@@ -15299,3107 +15327,1127 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="6" width="28" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>1546747</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45747.4167719932</v>
-      </c>
-      <c r="E2">
-        <v>1542953.3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45716.9584371574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>998713</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45747.4167879147</v>
-      </c>
-      <c r="E3">
-        <v>997021.4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45716.9584527361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>516625.9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45747.4168035755</v>
-      </c>
-      <c r="E4">
-        <v>514043.4</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45716.9584683726</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>822360.2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45747.4168193474</v>
-      </c>
-      <c r="E5">
-        <v>746780</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45716.9584840439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>721276.9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45747.416835227</v>
-      </c>
-      <c r="E6">
-        <v>721276.4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45716.9584996227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>693310.3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45747.4168509215</v>
-      </c>
-      <c r="E7">
-        <v>693310.2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>45716.9585152361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>877095.1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45747.4168665928</v>
-      </c>
-      <c r="E8">
-        <v>862779.9</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45716.9585309768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>533814.6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45747.4168835719</v>
-      </c>
-      <c r="E9">
-        <v>487671.6</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45716.9585466597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>316072.9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45747.416887889</v>
-      </c>
-      <c r="E10">
-        <v>245095.7</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45716.9585507569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>9892.9</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45747.4169036993</v>
-      </c>
-      <c r="E11">
-        <v>9884.2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>45716.9585663009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>419842.2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45747.416919521</v>
-      </c>
-      <c r="E12">
-        <v>419836.3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>45716.9585819722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>243152.1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45747.4169353312</v>
-      </c>
-      <c r="E13">
-        <v>243152.1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45716.9585975856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>3975.4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45747.4169510373</v>
-      </c>
-      <c r="E14">
-        <v>3975.4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45716.9586131296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>4985</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45747.416966859</v>
-      </c>
-      <c r="E15">
-        <v>4985</v>
-      </c>
-      <c r="F15" s="3">
-        <v>45716.9586288125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>26301.6</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45747.4169827503</v>
-      </c>
-      <c r="E16">
-        <v>5537.3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>45716.9586443796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <v>99136.7</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45747.4169997641</v>
-      </c>
-      <c r="E17">
-        <v>74572.8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>45716.9586613126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>6842.1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45747.4170041739</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>5400.2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>45747.4170200015</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <v>3441.1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>45747.4170356882</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21">
-        <v>6621</v>
-      </c>
-      <c r="D21" s="3">
-        <v>45747.4170515879</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22">
-        <v>39392.4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>45747.4170674791</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>18486.4</v>
-      </c>
-      <c r="D23" s="3">
-        <v>45747.4170832315</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24">
-        <v>19965</v>
-      </c>
-      <c r="D24" s="3">
-        <v>45747.4171000603</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25">
-        <v>18809.2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>45747.4171172824</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26">
-        <v>382.9</v>
-      </c>
-      <c r="D26" s="3">
-        <v>45747.417119632</v>
-      </c>
-      <c r="E26">
-        <v>287.3</v>
-      </c>
-      <c r="F26" s="3">
-        <v>45716.9591634102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>20070</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45747.4171219699</v>
-      </c>
-      <c r="E27">
-        <v>17809.3</v>
-      </c>
-      <c r="F27" s="3">
-        <v>45716.9591645676</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28">
-        <v>96613</v>
-      </c>
-      <c r="D28" s="3">
-        <v>45747.4171233125</v>
-      </c>
-      <c r="E28">
-        <v>90360.5</v>
-      </c>
-      <c r="F28" s="3">
-        <v>45716.9591656787</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29">
-        <v>22352</v>
-      </c>
-      <c r="D29" s="3">
-        <v>45737.9591575333</v>
-      </c>
-      <c r="E29">
-        <v>17841.4</v>
-      </c>
-      <c r="F29" s="3">
-        <v>45716.9591668014</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30">
-        <v>97124</v>
-      </c>
-      <c r="D30" s="3">
-        <v>45747.4171312292</v>
-      </c>
-      <c r="E30">
-        <v>87783.2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>45716.959167843</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31">
-        <v>113894</v>
-      </c>
-      <c r="D31" s="3">
-        <v>45747.4171355115</v>
-      </c>
-      <c r="E31">
-        <v>93223.2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>45716.9591730631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32">
-        <v>2261.2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>45747.4171398171</v>
-      </c>
-      <c r="E32">
-        <v>2261.2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>45716.959177137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33">
-        <v>65721</v>
-      </c>
-      <c r="D33" s="3">
-        <v>45747.4171439953</v>
-      </c>
-      <c r="E33">
-        <v>45499.2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45716.9591810375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34">
-        <v>417597.3</v>
-      </c>
-      <c r="D34" s="3">
-        <v>45747.4171481968</v>
-      </c>
-      <c r="E34">
-        <v>395971</v>
-      </c>
-      <c r="F34" s="3">
-        <v>45716.9591863153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35">
-        <v>82123.8</v>
-      </c>
-      <c r="D35" s="3">
-        <v>45747.4171525281</v>
-      </c>
-      <c r="E35">
-        <v>77667.6</v>
-      </c>
-      <c r="F35" s="3">
-        <v>45716.9591904356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36">
-        <v>719446.2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>45747.4171681967</v>
-      </c>
-      <c r="E36">
-        <v>627981</v>
-      </c>
-      <c r="F36" s="3">
-        <v>45716.9592058986</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37">
-        <v>358554</v>
-      </c>
-      <c r="D37" s="3">
-        <v>45747.4171839876</v>
-      </c>
-      <c r="E37">
-        <v>276078.4</v>
-      </c>
-      <c r="F37" s="3">
-        <v>45716.9592216857</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38">
-        <v>266295.8</v>
-      </c>
-      <c r="D38" s="3">
-        <v>45747.4171997347</v>
-      </c>
-      <c r="E38">
-        <v>188164.5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>45716.9592372759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39">
-        <v>317412.9</v>
-      </c>
-      <c r="D39" s="3">
-        <v>45747.4172154103</v>
-      </c>
-      <c r="E39">
-        <v>312316.7</v>
-      </c>
-      <c r="F39" s="3">
-        <v>45716.9592529819</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40">
-        <v>49982.4</v>
-      </c>
-      <c r="D40" s="3">
-        <v>45747.41723107</v>
-      </c>
-      <c r="E40">
-        <v>30113.9</v>
-      </c>
-      <c r="F40" s="3">
-        <v>45716.9592687111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41">
-        <v>88099.6</v>
-      </c>
-      <c r="D41" s="3">
-        <v>45747.4172468465</v>
-      </c>
-      <c r="E41">
-        <v>88092.7</v>
-      </c>
-      <c r="F41" s="3">
-        <v>45716.9592844634</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42">
-        <v>27038.7</v>
-      </c>
-      <c r="D42" s="3">
-        <v>45747.4172625184</v>
-      </c>
-      <c r="E42">
-        <v>27037.2</v>
-      </c>
-      <c r="F42" s="3">
-        <v>45716.9593004125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43">
-        <v>110729.2</v>
-      </c>
-      <c r="D43" s="3">
-        <v>45747.4172796158</v>
-      </c>
-      <c r="E43">
-        <v>80029.9</v>
-      </c>
-      <c r="F43" s="3">
-        <v>45716.9593160259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44">
-        <v>28453.1</v>
-      </c>
-      <c r="D44" s="3">
-        <v>45747.4172837697</v>
-      </c>
-      <c r="E44">
-        <v>6349.4</v>
-      </c>
-      <c r="F44" s="3">
-        <v>45716.9593214079</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45">
-        <v>2190.3</v>
-      </c>
-      <c r="D45" s="3">
-        <v>45747.4172995567</v>
-      </c>
-      <c r="E45">
-        <v>2190.2</v>
-      </c>
-      <c r="F45" s="3">
-        <v>45716.9593371589</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46">
-        <v>5764.9</v>
-      </c>
-      <c r="D46" s="3">
-        <v>45747.417315309</v>
-      </c>
-      <c r="E46">
-        <v>5764.9</v>
-      </c>
-      <c r="F46" s="3">
-        <v>45716.9593528319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47">
-        <v>14445.9</v>
-      </c>
-      <c r="D47" s="3">
-        <v>45747.4173320336</v>
-      </c>
-      <c r="E47">
-        <v>14445.7</v>
-      </c>
-      <c r="F47" s="3">
-        <v>45716.9593683758</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48">
-        <v>3230</v>
-      </c>
-      <c r="D48" s="3">
-        <v>45747.4173479942</v>
-      </c>
-      <c r="E48">
-        <v>3228.8</v>
-      </c>
-      <c r="F48" s="3">
-        <v>45716.9593838487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49">
-        <v>40803.4</v>
-      </c>
-      <c r="D49" s="3">
-        <v>45747.4173648923</v>
-      </c>
-      <c r="E49">
-        <v>40738</v>
-      </c>
-      <c r="F49" s="3">
-        <v>45716.9593994275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50">
-        <v>108158.8</v>
-      </c>
-      <c r="D50" s="3">
-        <v>45747.4173818136</v>
-      </c>
-      <c r="E50">
-        <v>106603.7</v>
-      </c>
-      <c r="F50" s="3">
-        <v>45716.9594151567</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51">
-        <v>88368.9</v>
-      </c>
-      <c r="D51" s="3">
-        <v>45747.4173974502</v>
-      </c>
-      <c r="E51">
-        <v>74595.4</v>
-      </c>
-      <c r="F51" s="3">
-        <v>45716.9594306775</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52">
-        <v>560712.3</v>
-      </c>
-      <c r="D52" s="3">
-        <v>45747.4174132836</v>
-      </c>
-      <c r="E52">
-        <v>525165.1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>45716.9594463488</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53">
-        <v>1201225.4</v>
-      </c>
-      <c r="D53" s="3">
-        <v>45747.4174289317</v>
-      </c>
-      <c r="E53">
-        <v>1034629.3</v>
-      </c>
-      <c r="F53" s="3">
-        <v>45716.9594620317</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54">
-        <v>269835.3</v>
-      </c>
-      <c r="D54" s="3">
-        <v>45747.4174447303</v>
-      </c>
-      <c r="E54">
-        <v>263588.7</v>
-      </c>
-      <c r="F54" s="3">
-        <v>45716.9594777493</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55">
-        <v>612315.5</v>
-      </c>
-      <c r="D55" s="3">
-        <v>45747.4174604132</v>
-      </c>
-      <c r="E55">
-        <v>579762.1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>45716.9594933164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56">
-        <v>82393.7</v>
-      </c>
-      <c r="D56" s="3">
-        <v>45747.4174616285</v>
-      </c>
-      <c r="E56">
-        <v>78467.7</v>
-      </c>
-      <c r="F56" s="3">
-        <v>45716.9594944275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57">
-        <v>70523.3</v>
-      </c>
-      <c r="D57" s="3">
-        <v>45747.4174628785</v>
-      </c>
-      <c r="E57">
-        <v>65021.2</v>
-      </c>
-      <c r="F57" s="3">
-        <v>45716.9594955271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58">
-        <v>62062.6</v>
-      </c>
-      <c r="D58" s="3">
-        <v>45747.4174640937</v>
-      </c>
-      <c r="E58">
-        <v>55805.8</v>
-      </c>
-      <c r="F58" s="3">
-        <v>45716.9594965455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59">
-        <v>53926.8</v>
-      </c>
-      <c r="D59" s="3">
-        <v>45747.4174652743</v>
-      </c>
-      <c r="E59">
-        <v>46797.4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>45716.9594975756</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60">
-        <v>771605.8</v>
-      </c>
-      <c r="D60" s="3">
-        <v>45747.4174694757</v>
-      </c>
-      <c r="E60">
-        <v>698794.2</v>
-      </c>
-      <c r="F60" s="3">
-        <v>45716.9595016266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61">
-        <v>1857381.6</v>
-      </c>
-      <c r="D61" s="3">
-        <v>45747.4174852627</v>
-      </c>
-      <c r="E61">
-        <v>1752159</v>
-      </c>
-      <c r="F61" s="3">
-        <v>45716.9595171358</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62">
-        <v>80325.5</v>
-      </c>
-      <c r="D62" s="3">
-        <v>45747.417489418</v>
-      </c>
-      <c r="E62">
-        <v>69983.3</v>
-      </c>
-      <c r="F62" s="3">
-        <v>45716.9595211404</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63">
-        <v>463183.9</v>
-      </c>
-      <c r="D63" s="3">
-        <v>45747.4174907835</v>
-      </c>
-      <c r="E63">
-        <v>446597.2</v>
-      </c>
-      <c r="F63" s="3">
-        <v>45716.9595234205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64">
-        <v>277413.5</v>
-      </c>
-      <c r="D64" s="3">
-        <v>45747.4174960382</v>
-      </c>
-      <c r="E64">
-        <v>256821.4</v>
-      </c>
-      <c r="F64" s="3">
-        <v>45716.9595273905</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65">
-        <v>474780.4</v>
-      </c>
-      <c r="D65" s="3">
-        <v>45747.4175118601</v>
-      </c>
-      <c r="E65">
-        <v>447341.7</v>
-      </c>
-      <c r="F65" s="3">
-        <v>45716.9595441844</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66">
-        <v>254258.7</v>
-      </c>
-      <c r="D66" s="3">
-        <v>45747.4175161539</v>
-      </c>
-      <c r="E66">
-        <v>251008</v>
-      </c>
-      <c r="F66" s="3">
-        <v>45716.9595495664</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67">
-        <v>120156787.7</v>
-      </c>
-      <c r="D67" s="3">
-        <v>45747.4175186886</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68">
-        <v>119596631</v>
-      </c>
-      <c r="D68" s="3">
-        <v>45747.417533898</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69">
-        <v>119451699.2</v>
-      </c>
-      <c r="D69" s="3">
-        <v>45747.4175509554</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D70" t="s">
-        <v>213</v>
-      </c>
-      <c r="E70" t="s">
-        <v>213</v>
-      </c>
-      <c r="F70" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" t="s">
-        <v>213</v>
-      </c>
-      <c r="E71" t="s">
-        <v>213</v>
-      </c>
-      <c r="F71" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72">
-        <v>151105.7</v>
-      </c>
-      <c r="D72" s="3">
-        <v>45747.4176807992</v>
-      </c>
-      <c r="E72">
-        <v>144227.1</v>
-      </c>
-      <c r="F72" s="3">
-        <v>45716.9595507238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73">
-        <v>10552.2</v>
-      </c>
-      <c r="D73" s="3">
-        <v>45747.4176848269</v>
-      </c>
-      <c r="E73">
-        <v>10527.6</v>
-      </c>
-      <c r="F73" s="3">
-        <v>45716.9595560132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74">
-        <v>565663.8</v>
-      </c>
-      <c r="D74" s="3">
-        <v>45747.4177007644</v>
-      </c>
-      <c r="E74">
-        <v>540780.4</v>
-      </c>
-      <c r="F74" s="3">
-        <v>45716.9595716327</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75">
-        <v>775764.6</v>
-      </c>
-      <c r="D75" s="3">
-        <v>45747.4177060456</v>
-      </c>
-      <c r="E75">
-        <v>748932.7</v>
-      </c>
-      <c r="F75" s="3">
-        <v>45716.9595756273</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>100</v>
-      </c>
-      <c r="C76">
-        <v>536132.9</v>
-      </c>
-      <c r="D76" s="3">
-        <v>45747.4177218285</v>
-      </c>
-      <c r="E76">
-        <v>493754.2</v>
-      </c>
-      <c r="F76" s="3">
-        <v>45716.9595912001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77">
-        <v>475900.3</v>
-      </c>
-      <c r="D77" s="3">
-        <v>45747.4177375127</v>
-      </c>
-      <c r="E77">
-        <v>442660.3</v>
-      </c>
-      <c r="F77" s="3">
-        <v>45716.9596067376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78">
-        <v>527008.4</v>
-      </c>
-      <c r="D78" s="3">
-        <v>45747.4177399478</v>
-      </c>
-      <c r="E78">
-        <v>512908.6</v>
-      </c>
-      <c r="F78" s="3">
-        <v>45716.9596090425</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79">
-        <v>159689.2</v>
-      </c>
-      <c r="D79" s="3">
-        <v>45747.4177413283</v>
-      </c>
-      <c r="E79">
-        <v>154849.2</v>
-      </c>
-      <c r="F79" s="3">
-        <v>45716.9596102019</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80">
-        <v>212549.8</v>
-      </c>
-      <c r="D80" s="3">
-        <v>45747.4177437456</v>
-      </c>
-      <c r="E80">
-        <v>205111.6</v>
-      </c>
-      <c r="F80" s="3">
-        <v>45716.9596112741</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81">
-        <v>66611.5</v>
-      </c>
-      <c r="D81" s="3">
-        <v>45747.4177450883</v>
-      </c>
-      <c r="E81">
-        <v>64662.5</v>
-      </c>
-      <c r="F81" s="3">
-        <v>45716.9596123814</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82">
-        <v>350113.3</v>
-      </c>
-      <c r="D82" s="3">
-        <v>45747.4177492781</v>
-      </c>
-      <c r="E82">
-        <v>332475.3</v>
-      </c>
-      <c r="F82" s="3">
-        <v>45716.9596164755</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>108</v>
-      </c>
-      <c r="C83">
-        <v>418873.4</v>
-      </c>
-      <c r="D83" s="3">
-        <v>45747.4177649725</v>
-      </c>
-      <c r="E83">
-        <v>387404.3</v>
-      </c>
-      <c r="F83" s="3">
-        <v>45716.9596320426</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>109</v>
-      </c>
-      <c r="C84">
-        <v>324282.1</v>
-      </c>
-      <c r="D84" s="3">
-        <v>45747.4177807827</v>
-      </c>
-      <c r="E84">
-        <v>304575.8</v>
-      </c>
-      <c r="F84" s="3">
-        <v>45716.9596477024</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" t="s">
-        <v>213</v>
-      </c>
-      <c r="F85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" t="s">
-        <v>213</v>
-      </c>
-      <c r="D86" t="s">
-        <v>213</v>
-      </c>
-      <c r="E86" t="s">
-        <v>213</v>
-      </c>
-      <c r="F86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>113</v>
-      </c>
-      <c r="C87" t="s">
-        <v>213</v>
-      </c>
-      <c r="D87" t="s">
-        <v>213</v>
-      </c>
-      <c r="E87" t="s">
-        <v>213</v>
-      </c>
-      <c r="F87" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>114</v>
-      </c>
-      <c r="C88" t="s">
-        <v>213</v>
-      </c>
-      <c r="D88" t="s">
-        <v>213</v>
-      </c>
-      <c r="E88" t="s">
-        <v>213</v>
-      </c>
-      <c r="F88" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" t="s">
-        <v>213</v>
-      </c>
-      <c r="D89" t="s">
-        <v>213</v>
-      </c>
-      <c r="E89" t="s">
-        <v>213</v>
-      </c>
-      <c r="F89" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" t="s">
-        <v>213</v>
-      </c>
-      <c r="D90" t="s">
-        <v>213</v>
-      </c>
-      <c r="E90" t="s">
-        <v>213</v>
-      </c>
-      <c r="F90" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" t="s">
-        <v>213</v>
-      </c>
-      <c r="E91" t="s">
-        <v>213</v>
-      </c>
-      <c r="F91" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C92" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E92" t="s">
-        <v>213</v>
-      </c>
-      <c r="F92" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>121</v>
-      </c>
-      <c r="C93">
-        <v>728479.4</v>
-      </c>
-      <c r="D93" s="3">
-        <v>45747.4177965761</v>
-      </c>
-      <c r="E93">
-        <v>713866.7</v>
-      </c>
-      <c r="F93" s="3">
-        <v>45716.9596634316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94">
-        <v>244929.7</v>
-      </c>
-      <c r="D94" s="3">
-        <v>45747.41781234</v>
-      </c>
-      <c r="E94">
-        <v>230886.7</v>
-      </c>
-      <c r="F94" s="3">
-        <v>45716.9596789176</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95">
-        <v>236258.4</v>
-      </c>
-      <c r="D95" s="3">
-        <v>45747.4178280808</v>
-      </c>
-      <c r="E95">
-        <v>231355.1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>45716.9596944153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96">
-        <v>183052.4</v>
-      </c>
-      <c r="D96" s="3">
-        <v>45747.4178438678</v>
-      </c>
-      <c r="E96">
-        <v>179636.5</v>
-      </c>
-      <c r="F96" s="3">
-        <v>45716.9597101448</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97">
-        <v>249920.8</v>
-      </c>
-      <c r="D97" s="3">
-        <v>45747.4178479187</v>
-      </c>
-      <c r="E97">
-        <v>238615.1</v>
-      </c>
-      <c r="F97" s="3">
-        <v>45716.9597140913</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>127</v>
-      </c>
-      <c r="C98">
-        <v>340943.7</v>
-      </c>
-      <c r="D98" s="3">
-        <v>45747.4178532197</v>
-      </c>
-      <c r="E98">
-        <v>320334.5</v>
-      </c>
-      <c r="F98" s="3">
-        <v>45716.9597182347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99">
-        <v>11256.4</v>
-      </c>
-      <c r="D99" s="3">
-        <v>45747.4178576293</v>
-      </c>
-      <c r="E99">
-        <v>11256.4</v>
-      </c>
-      <c r="F99" s="3">
-        <v>45716.959722332</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100">
-        <v>62729.3</v>
-      </c>
-      <c r="D100" s="3">
-        <v>45747.417873237</v>
-      </c>
-      <c r="E100">
-        <v>58198.1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>45716.9597380264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101">
-        <v>8262.2</v>
-      </c>
-      <c r="D101" s="3">
-        <v>45747.4178889694</v>
-      </c>
-      <c r="E101">
-        <v>8262.2</v>
-      </c>
-      <c r="F101" s="3">
-        <v>45716.9597536156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>133</v>
-      </c>
-      <c r="C102">
-        <v>62438.8</v>
-      </c>
-      <c r="D102" s="3">
-        <v>45747.4179047214</v>
-      </c>
-      <c r="E102">
-        <v>57560.5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>45716.9597693499</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>134</v>
-      </c>
-      <c r="C103">
-        <v>2712.7</v>
-      </c>
-      <c r="D103" s="3">
-        <v>45747.4179216452</v>
-      </c>
-      <c r="E103">
-        <v>2712.7</v>
-      </c>
-      <c r="F103" s="3">
-        <v>45716.95978489</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104">
-        <v>7083.8</v>
-      </c>
-      <c r="D104" s="3">
-        <v>45747.4179373281</v>
-      </c>
-      <c r="E104">
-        <v>7078.6</v>
-      </c>
-      <c r="F104" s="3">
-        <v>45716.9598003877</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105">
-        <v>58155.5</v>
-      </c>
-      <c r="D105" s="3">
-        <v>45747.4179542842</v>
-      </c>
-      <c r="E105">
-        <v>56172.7</v>
-      </c>
-      <c r="F105" s="3">
-        <v>45716.9598159548</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106">
-        <v>2038.2</v>
-      </c>
-      <c r="D106" s="3">
-        <v>45747.417970129</v>
-      </c>
-      <c r="E106">
-        <v>2038.2</v>
-      </c>
-      <c r="F106" s="3">
-        <v>45716.959831684</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>138</v>
-      </c>
-      <c r="C107">
-        <v>68459.3</v>
-      </c>
-      <c r="D107" s="3">
-        <v>45747.417985974</v>
-      </c>
-      <c r="E107">
-        <v>65520.6</v>
-      </c>
-      <c r="F107" s="3">
-        <v>45716.9598472743</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108">
-        <v>74631.8</v>
-      </c>
-      <c r="D108" s="3">
-        <v>45747.4180017264</v>
-      </c>
-      <c r="E108">
-        <v>71881.5</v>
-      </c>
-      <c r="F108" s="3">
-        <v>45716.9598627488</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109">
-        <v>16036.9</v>
-      </c>
-      <c r="D109" s="3">
-        <v>45747.4180175712</v>
-      </c>
-      <c r="E109">
-        <v>16036.9</v>
-      </c>
-      <c r="F109" s="3">
-        <v>45716.959878455</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" t="s">
-        <v>213</v>
-      </c>
-      <c r="D110" t="s">
-        <v>213</v>
-      </c>
-      <c r="E110" t="s">
-        <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111">
-        <v>62060.3</v>
-      </c>
-      <c r="D111" s="3">
-        <v>45747.4180198512</v>
-      </c>
-      <c r="E111">
-        <v>60647.2</v>
-      </c>
-      <c r="F111" s="3">
-        <v>45716.9598796356</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>143</v>
-      </c>
-      <c r="C112">
-        <v>67551.9</v>
-      </c>
-      <c r="D112" s="3">
-        <v>45747.4180212054</v>
-      </c>
-      <c r="E112">
-        <v>64867.8</v>
-      </c>
-      <c r="F112" s="3">
-        <v>45716.9598807696</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" t="s">
-        <v>213</v>
-      </c>
-      <c r="D113" t="s">
-        <v>213</v>
-      </c>
-      <c r="E113" t="s">
-        <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>147</v>
-      </c>
-      <c r="C114">
-        <v>2825.4</v>
-      </c>
-      <c r="D114" s="3">
-        <v>45747.4180300827</v>
-      </c>
-      <c r="E114">
-        <v>2708.2</v>
-      </c>
-      <c r="F114" s="3">
-        <v>45716.9598866492</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>148</v>
-      </c>
-      <c r="C115">
-        <v>659.3</v>
-      </c>
-      <c r="D115" s="3">
-        <v>45747.4180457888</v>
-      </c>
-      <c r="E115">
-        <v>659.3</v>
-      </c>
-      <c r="F115" s="3">
-        <v>45716.9599023205</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>149</v>
-      </c>
-      <c r="C116">
-        <v>2889.8</v>
-      </c>
-      <c r="D116" s="3">
-        <v>45747.4180613906</v>
-      </c>
-      <c r="E116">
-        <v>2889.8</v>
-      </c>
-      <c r="F116" s="3">
-        <v>45716.9599178529</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>150</v>
-      </c>
-      <c r="C117">
-        <v>300.7</v>
-      </c>
-      <c r="D117" s="3">
-        <v>45747.4180771776</v>
-      </c>
-      <c r="E117">
-        <v>300.7</v>
-      </c>
-      <c r="F117" s="3">
-        <v>45716.9599333275</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>151</v>
-      </c>
-      <c r="C118">
-        <v>385.1</v>
-      </c>
-      <c r="D118" s="3">
-        <v>45747.3764159609</v>
-      </c>
-      <c r="E118">
-        <v>385.1</v>
-      </c>
-      <c r="F118" s="3">
-        <v>45716.9599489757</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>152</v>
-      </c>
-      <c r="C119">
-        <v>12453</v>
-      </c>
-      <c r="D119" s="3">
-        <v>45747.3764315628</v>
-      </c>
-      <c r="E119">
-        <v>11331.7</v>
-      </c>
-      <c r="F119" s="3">
-        <v>45716.9599646585</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>153</v>
-      </c>
-      <c r="C120">
-        <v>37709.2</v>
-      </c>
-      <c r="D120" s="3">
-        <v>45747.376447153</v>
-      </c>
-      <c r="E120">
-        <v>37709.2</v>
-      </c>
-      <c r="F120" s="3">
-        <v>45716.9599801794</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>154</v>
-      </c>
-      <c r="C121">
-        <v>32106.4</v>
-      </c>
-      <c r="D121" s="3">
-        <v>45747.3764629284</v>
-      </c>
-      <c r="E121">
-        <v>32106.4</v>
-      </c>
-      <c r="F121" s="3">
-        <v>45716.9599958394</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122" t="s">
-        <v>213</v>
-      </c>
-      <c r="D122" t="s">
-        <v>213</v>
-      </c>
-      <c r="E122" t="s">
-        <v>213</v>
-      </c>
-      <c r="F122" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>158</v>
-      </c>
-      <c r="C123">
-        <v>39308.7</v>
-      </c>
-      <c r="D123" s="3">
-        <v>45747.3764642017</v>
-      </c>
-      <c r="E123">
-        <v>38972.6</v>
-      </c>
-      <c r="F123" s="3">
-        <v>45716.959997147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>159</v>
-      </c>
-      <c r="C124">
-        <v>89169.5</v>
-      </c>
-      <c r="D124" s="3">
-        <v>45747.3764696299</v>
-      </c>
-      <c r="E124">
-        <v>86208.6</v>
-      </c>
-      <c r="F124" s="3">
-        <v>45716.9600010821</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>161</v>
-      </c>
-      <c r="C125">
-        <v>15212.1</v>
-      </c>
-      <c r="D125" s="3">
-        <v>45747.3764854053</v>
-      </c>
-      <c r="E125">
-        <v>14519.8</v>
-      </c>
-      <c r="F125" s="3">
-        <v>45716.9600166029</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>163</v>
-      </c>
-      <c r="C126">
-        <v>157569.9</v>
-      </c>
-      <c r="D126" s="3">
-        <v>45747.3765010188</v>
-      </c>
-      <c r="E126">
-        <v>150387.7</v>
-      </c>
-      <c r="F126" s="3">
-        <v>45716.9600322511</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>164</v>
-      </c>
-      <c r="C127">
-        <v>138253</v>
-      </c>
-      <c r="D127" s="3">
-        <v>45747.3765168636</v>
-      </c>
-      <c r="E127">
-        <v>134703.9</v>
-      </c>
-      <c r="F127" s="3">
-        <v>45716.9600477951</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>166</v>
-      </c>
-      <c r="C128" t="s">
-        <v>213</v>
-      </c>
-      <c r="D128" t="s">
-        <v>213</v>
-      </c>
-      <c r="E128" t="s">
-        <v>213</v>
-      </c>
-      <c r="F128" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>167</v>
-      </c>
-      <c r="C129" t="s">
-        <v>213</v>
-      </c>
-      <c r="D129" t="s">
-        <v>213</v>
-      </c>
-      <c r="E129" t="s">
-        <v>213</v>
-      </c>
-      <c r="F129" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>179</v>
-      </c>
-      <c r="C130" t="s">
-        <v>213</v>
-      </c>
-      <c r="D130" t="s">
-        <v>213</v>
-      </c>
-      <c r="E130" t="s">
-        <v>213</v>
-      </c>
-      <c r="F130" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>180</v>
-      </c>
-      <c r="C131" t="s">
-        <v>213</v>
-      </c>
-      <c r="D131" t="s">
-        <v>213</v>
-      </c>
-      <c r="E131" t="s">
-        <v>213</v>
-      </c>
-      <c r="F131" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>181</v>
-      </c>
-      <c r="C132" t="s">
-        <v>213</v>
-      </c>
-      <c r="D132" t="s">
-        <v>213</v>
-      </c>
-      <c r="E132" t="s">
-        <v>213</v>
-      </c>
-      <c r="F132" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>169</v>
-      </c>
-      <c r="C133" t="s">
-        <v>213</v>
-      </c>
-      <c r="D133" t="s">
-        <v>213</v>
-      </c>
-      <c r="E133" t="s">
-        <v>213</v>
-      </c>
-      <c r="F133" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>170</v>
-      </c>
-      <c r="C134">
-        <v>414435.7</v>
-      </c>
-      <c r="D134" s="3">
-        <v>45747.3765265627</v>
-      </c>
-      <c r="E134">
-        <v>386040.9</v>
-      </c>
-      <c r="F134" s="3">
-        <v>45716.9600789757</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
-        <v>213</v>
-      </c>
-      <c r="B135" t="s">
-        <v>213</v>
-      </c>
-      <c r="C135" t="s">
-        <v>213</v>
-      </c>
-      <c r="D135" t="s">
-        <v>213</v>
-      </c>
-      <c r="E135" t="s">
-        <v>213</v>
-      </c>
-      <c r="F135" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>182</v>
-      </c>
-      <c r="C136" t="s">
-        <v>213</v>
-      </c>
-      <c r="D136" t="s">
-        <v>213</v>
-      </c>
-      <c r="E136" t="s">
-        <v>213</v>
-      </c>
-      <c r="F136" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>183</v>
-      </c>
-      <c r="C137" t="s">
-        <v>213</v>
-      </c>
-      <c r="D137" t="s">
-        <v>213</v>
-      </c>
-      <c r="E137" t="s">
-        <v>213</v>
-      </c>
-      <c r="F137" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" t="s">
-        <v>213</v>
-      </c>
-      <c r="D138" t="s">
-        <v>213</v>
-      </c>
-      <c r="E138" t="s">
-        <v>213</v>
-      </c>
-      <c r="F138" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>185</v>
-      </c>
-      <c r="C139" t="s">
-        <v>213</v>
-      </c>
-      <c r="D139" t="s">
-        <v>213</v>
-      </c>
-      <c r="E139" t="s">
-        <v>213</v>
-      </c>
-      <c r="F139" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>186</v>
-      </c>
-      <c r="C140" t="s">
-        <v>213</v>
-      </c>
-      <c r="D140" t="s">
-        <v>213</v>
-      </c>
-      <c r="E140" t="s">
-        <v>213</v>
-      </c>
-      <c r="F140" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>187</v>
-      </c>
-      <c r="C141" t="s">
-        <v>213</v>
-      </c>
-      <c r="D141" t="s">
-        <v>213</v>
-      </c>
-      <c r="E141" t="s">
-        <v>213</v>
-      </c>
-      <c r="F141" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>188</v>
-      </c>
-      <c r="C142" t="s">
-        <v>213</v>
-      </c>
-      <c r="D142" t="s">
-        <v>213</v>
-      </c>
-      <c r="E142" t="s">
-        <v>213</v>
-      </c>
-      <c r="F142" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>189</v>
-      </c>
-      <c r="C143" t="s">
-        <v>213</v>
-      </c>
-      <c r="D143" t="s">
-        <v>213</v>
-      </c>
-      <c r="E143" t="s">
-        <v>213</v>
-      </c>
-      <c r="F143" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>190</v>
-      </c>
-      <c r="C144" t="s">
-        <v>213</v>
-      </c>
-      <c r="D144" t="s">
-        <v>213</v>
-      </c>
-      <c r="E144" t="s">
-        <v>213</v>
-      </c>
-      <c r="F144" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>191</v>
-      </c>
-      <c r="C145" t="s">
-        <v>213</v>
-      </c>
-      <c r="D145" t="s">
-        <v>213</v>
-      </c>
-      <c r="E145" t="s">
-        <v>213</v>
-      </c>
-      <c r="F145" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>192</v>
-      </c>
-      <c r="C146">
-        <v>315941.3</v>
-      </c>
-      <c r="D146" s="3">
-        <v>45747.3765307643</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>193</v>
-      </c>
-      <c r="C147">
-        <v>1416446.1</v>
-      </c>
-      <c r="D147" s="3">
-        <v>45747.3765350003</v>
-      </c>
-      <c r="E147">
-        <v>1239736.7</v>
-      </c>
-      <c r="F147" s="3">
-        <v>45716.9601353182</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>194</v>
-      </c>
-      <c r="C148">
-        <v>7900817.1</v>
-      </c>
-      <c r="D148" s="3">
-        <v>45747.3765391206</v>
-      </c>
-      <c r="E148">
-        <v>7668035.6</v>
-      </c>
-      <c r="F148" s="3">
-        <v>45716.9601392766</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>195</v>
-      </c>
-      <c r="C149">
-        <v>2693629</v>
-      </c>
-      <c r="D149" s="3">
-        <v>45747.3765432294</v>
-      </c>
-      <c r="E149">
-        <v>2461160.9</v>
-      </c>
-      <c r="F149" s="3">
-        <v>45716.9601432044</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>196</v>
-      </c>
-      <c r="C150">
-        <v>2553390</v>
-      </c>
-      <c r="D150" s="3">
-        <v>45747.3765473961</v>
-      </c>
-      <c r="E150">
-        <v>2210593.6</v>
-      </c>
-      <c r="F150" s="3">
-        <v>45716.9601473668</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>197</v>
-      </c>
-      <c r="C151">
-        <v>6235270</v>
-      </c>
-      <c r="D151" s="3">
-        <v>45747.3765526044</v>
-      </c>
-      <c r="E151">
-        <v>5876157.1</v>
-      </c>
-      <c r="F151" s="3">
-        <v>45716.9601514757</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>198</v>
-      </c>
-      <c r="C152">
-        <v>3349178.9</v>
-      </c>
-      <c r="D152" s="3">
-        <v>45747.3765577823</v>
-      </c>
-      <c r="E152">
-        <v>3173564.9</v>
-      </c>
-      <c r="F152" s="3">
-        <v>45716.9601569271</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>199</v>
-      </c>
-      <c r="C153">
-        <v>3777963.6</v>
-      </c>
-      <c r="D153" s="3">
-        <v>45747.376561827</v>
-      </c>
-      <c r="E153">
-        <v>3549803.6</v>
-      </c>
-      <c r="F153" s="3">
-        <v>45716.9601610937</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>200</v>
-      </c>
-      <c r="C154" t="s">
-        <v>213</v>
-      </c>
-      <c r="D154" t="s">
-        <v>213</v>
-      </c>
-      <c r="E154" t="s">
-        <v>213</v>
-      </c>
-      <c r="F154" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>201</v>
-      </c>
-      <c r="C155">
-        <v>424297.7</v>
-      </c>
-      <c r="D155" s="3">
-        <v>45747.376629804</v>
-      </c>
-      <c r="E155">
-        <v>348843.7</v>
-      </c>
-      <c r="F155" s="3">
-        <v>45716.9602289988</v>
+    <row r="1" s="69" customFormat="1">
+      <c r="A1" s="69" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B1" s="69" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="C1" s="69" t="inlineStr">
+        <is>
+          <t>耗电量</t>
+        </is>
+      </c>
+      <c r="D1" s="69" t="inlineStr">
+        <is>
+          <t>最大值</t>
+        </is>
+      </c>
+      <c r="E1" s="69" t="inlineStr">
+        <is>
+          <t>最大值日期</t>
+        </is>
+      </c>
+      <c r="F1" s="69" t="inlineStr">
+        <is>
+          <t>最小值</t>
+        </is>
+      </c>
+      <c r="G1" s="69" t="inlineStr">
+        <is>
+          <t>最小值日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="69" customFormat="1">
+      <c r="A2" s="69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="69" customFormat="1">
+      <c r="A3" s="69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="69" customFormat="1">
+      <c r="A4" s="69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="69" customFormat="1">
+      <c r="A5" s="69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="69" customFormat="1">
+      <c r="A6" s="69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="69" customFormat="1">
+      <c r="A7" s="69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="69" customFormat="1">
+      <c r="A8" s="69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="69" customFormat="1">
+      <c r="A9" s="69" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="69" customFormat="1">
+      <c r="A10" s="69" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" s="69" customFormat="1">
+      <c r="A11" s="69" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" s="69" customFormat="1">
+      <c r="A12" s="69" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" s="69" customFormat="1">
+      <c r="A13" s="69" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" s="69" customFormat="1">
+      <c r="A14" s="69" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" s="69" customFormat="1">
+      <c r="A15" s="69" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" s="69" customFormat="1">
+      <c r="A16" s="69" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" s="69" customFormat="1">
+      <c r="A17" s="69" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" s="69" customFormat="1">
+      <c r="A18" s="69" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" s="69" customFormat="1">
+      <c r="A19" s="69" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" s="69" customFormat="1">
+      <c r="A20" s="69" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" s="69" customFormat="1">
+      <c r="A21" s="69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" s="69" customFormat="1">
+      <c r="A22" s="69" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" s="69" customFormat="1">
+      <c r="A23" s="69" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" s="69" customFormat="1">
+      <c r="A24" s="69" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" s="69" customFormat="1">
+      <c r="A25" s="69" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" s="69" customFormat="1">
+      <c r="A26" s="69" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" s="69" customFormat="1">
+      <c r="A27" s="69" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" s="69" customFormat="1">
+      <c r="A28" s="69" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" s="69" customFormat="1">
+      <c r="A29" s="69" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" s="69" customFormat="1">
+      <c r="A30" s="69" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" s="69" customFormat="1">
+      <c r="A31" s="69" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" s="69" customFormat="1">
+      <c r="A32" s="69" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" s="69" customFormat="1">
+      <c r="A33" s="69" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" s="69" customFormat="1">
+      <c r="A34" s="69" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" s="69" customFormat="1">
+      <c r="A35" s="69" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" s="69" customFormat="1">
+      <c r="A36" s="69" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" s="69" customFormat="1">
+      <c r="A37" s="69" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" s="69" customFormat="1">
+      <c r="A38" s="69" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" s="69" customFormat="1">
+      <c r="A39" s="69" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" s="69" customFormat="1">
+      <c r="A40" s="69" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" s="69" customFormat="1">
+      <c r="A41" s="69" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" s="69" customFormat="1">
+      <c r="A42" s="69" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" s="69" customFormat="1">
+      <c r="A43" s="69" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" s="69" customFormat="1">
+      <c r="A44" s="69" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" s="69" customFormat="1">
+      <c r="A45" s="69" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" s="69" customFormat="1">
+      <c r="A46" s="69" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" s="69" customFormat="1">
+      <c r="A47" s="69" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" s="69" customFormat="1">
+      <c r="A48" s="69" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" s="69" customFormat="1">
+      <c r="A49" s="69" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" s="69" customFormat="1">
+      <c r="A50" s="69" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" s="69" customFormat="1">
+      <c r="A51" s="69" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" s="69" customFormat="1">
+      <c r="A52" s="69" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" s="69" customFormat="1">
+      <c r="A53" s="69" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" s="69" customFormat="1">
+      <c r="A54" s="69" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" s="69" customFormat="1">
+      <c r="A55" s="69" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" s="69" customFormat="1">
+      <c r="A56" s="69" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" s="69" customFormat="1">
+      <c r="A57" s="69" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" s="69" customFormat="1">
+      <c r="A58" s="69" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" s="69" customFormat="1">
+      <c r="A59" s="69" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" s="69" customFormat="1">
+      <c r="A60" s="69" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" s="69" customFormat="1">
+      <c r="A61" s="69" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" s="69" customFormat="1">
+      <c r="A62" s="69" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" s="69" customFormat="1">
+      <c r="A63" s="69" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" s="69" customFormat="1">
+      <c r="A64" s="69" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" s="69" customFormat="1">
+      <c r="A65" s="69" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" s="69" customFormat="1">
+      <c r="A66" s="69" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" s="69" customFormat="1">
+      <c r="A67" s="69" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" s="69" customFormat="1">
+      <c r="A68" s="69" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" s="69" customFormat="1">
+      <c r="A69" s="69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" s="69" customFormat="1">
+      <c r="A70" s="69" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" s="69" customFormat="1">
+      <c r="A71" s="69" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" s="69" customFormat="1">
+      <c r="A72" s="69" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" s="69" customFormat="1">
+      <c r="A73" s="69" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" s="69" customFormat="1">
+      <c r="A74" s="69" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" s="69" customFormat="1">
+      <c r="A75" s="69" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" s="69" customFormat="1">
+      <c r="A76" s="69" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" s="69" customFormat="1">
+      <c r="A77" s="69" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" s="69" customFormat="1">
+      <c r="A78" s="69" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" s="69" customFormat="1">
+      <c r="A79" s="69" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" s="69" customFormat="1">
+      <c r="A80" s="69" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" s="69" customFormat="1">
+      <c r="A81" s="69" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" s="69" customFormat="1">
+      <c r="A82" s="69" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" s="69" customFormat="1">
+      <c r="A83" s="69" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" s="69" customFormat="1">
+      <c r="A84" s="69" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" s="69" customFormat="1">
+      <c r="A85" s="69" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" s="69" customFormat="1">
+      <c r="A86" s="69" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" s="69" customFormat="1">
+      <c r="A87" s="69" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" s="69" customFormat="1">
+      <c r="A88" s="69" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" s="69" customFormat="1">
+      <c r="A89" s="69" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" s="69" customFormat="1">
+      <c r="A90" s="69" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" s="69" customFormat="1">
+      <c r="A91" s="69" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" s="69" customFormat="1">
+      <c r="A92" s="69" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" s="69" customFormat="1">
+      <c r="A93" s="69" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" s="69" customFormat="1">
+      <c r="A94" s="69" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" s="69" customFormat="1">
+      <c r="A95" s="69" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" s="69" customFormat="1">
+      <c r="A96" s="69" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" s="69" customFormat="1">
+      <c r="A97" s="69" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" s="69" customFormat="1">
+      <c r="A98" s="69" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" s="69" customFormat="1">
+      <c r="A99" s="69" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" s="69" customFormat="1">
+      <c r="A100" s="69" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" s="69" customFormat="1">
+      <c r="A101" s="69" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" s="69" customFormat="1">
+      <c r="A102" s="69" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" s="69" customFormat="1">
+      <c r="A103" s="69" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" s="69" customFormat="1">
+      <c r="A104" s="69" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" s="69" customFormat="1">
+      <c r="A105" s="69" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" s="69" customFormat="1">
+      <c r="A106" s="69" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" s="69" customFormat="1">
+      <c r="A107" s="69" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" s="69" customFormat="1">
+      <c r="A108" s="69" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" s="69" customFormat="1">
+      <c r="A109" s="69" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" s="69" customFormat="1">
+      <c r="A110" s="69" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" s="69" customFormat="1">
+      <c r="A111" s="69" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" s="69" customFormat="1">
+      <c r="A112" s="69" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" s="69" customFormat="1">
+      <c r="A113" s="69" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" s="69" customFormat="1">
+      <c r="A114" s="69" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" s="69" customFormat="1">
+      <c r="A115" s="69" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" s="69" customFormat="1">
+      <c r="A116" s="69" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" s="69" customFormat="1">
+      <c r="A117" s="69" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" s="69" customFormat="1">
+      <c r="A118" s="69" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" s="69" customFormat="1">
+      <c r="A119" s="69" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" s="69" customFormat="1">
+      <c r="A120" s="69" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" s="69" customFormat="1">
+      <c r="A121" s="69" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" s="69" customFormat="1">
+      <c r="A122" s="69" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" s="69" customFormat="1">
+      <c r="A123" s="69" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" s="69" customFormat="1">
+      <c r="A124" s="69" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" s="69" customFormat="1">
+      <c r="A125" s="69" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" s="69" customFormat="1">
+      <c r="A126" s="69" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" s="69" customFormat="1">
+      <c r="A127" s="69" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" s="69" customFormat="1">
+      <c r="A128" s="69" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" s="69" customFormat="1">
+      <c r="A129" s="69" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" s="69" customFormat="1">
+      <c r="A130" s="69" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" s="69" customFormat="1">
+      <c r="A131" s="69" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" s="69" customFormat="1">
+      <c r="A132" s="69" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" s="69" customFormat="1">
+      <c r="A133" s="69" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" s="69" customFormat="1">
+      <c r="A134" s="69" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" s="69" customFormat="1">
+      <c r="A135" s="69" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="136" s="69" customFormat="1">
+      <c r="A136" s="69" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" s="69" customFormat="1">
+      <c r="A137" s="69" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" s="69" customFormat="1">
+      <c r="A138" s="69" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" s="69" customFormat="1">
+      <c r="A139" s="69" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" s="69" customFormat="1">
+      <c r="A140" s="69" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" s="69" customFormat="1">
+      <c r="A141" s="69" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" s="69" customFormat="1">
+      <c r="A142" s="69" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" s="69" customFormat="1">
+      <c r="A143" s="69" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" s="69" customFormat="1">
+      <c r="A144" s="69" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" s="69" customFormat="1">
+      <c r="A145" s="69" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" s="69" customFormat="1">
+      <c r="A146" s="69" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" s="69" customFormat="1">
+      <c r="A147" s="69" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" s="69" customFormat="1">
+      <c r="A148" s="69" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" s="69" customFormat="1">
+      <c r="A149" s="69" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" s="69" customFormat="1">
+      <c r="A150" s="69" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" s="69" customFormat="1">
+      <c r="A151" s="69" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" s="69" customFormat="1">
+      <c r="A152" s="69" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" s="69" customFormat="1">
+      <c r="A153" s="69" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" s="69" customFormat="1">
+      <c r="A154" s="69" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" s="69" customFormat="1">
+      <c r="A155" s="69" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
       </c>
     </row>
   </sheetData>
